--- a/erick/reporte1 2020-11-20.xlsx
+++ b/erick/reporte1 2020-11-20.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="907">
   <si>
     <t>Nombre Completo</t>
   </si>
@@ -41,109 +41,109 @@
     <t>VIP Occidente</t>
   </si>
   <si>
+    <t xml:space="preserve">Jeimmy  constanza Sanabria  Chinchilla </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julieth marcela Fernandez zoque </t>
+  </si>
+  <si>
+    <t>Yira Paola Escarraga Marin</t>
+  </si>
+  <si>
     <t>laura valentina garcia duran</t>
   </si>
   <si>
-    <t xml:space="preserve">Julieth marcela Fernandez zoque </t>
-  </si>
-  <si>
-    <t>Yira Paola Escarraga Marin</t>
+    <t>Darly Valentina López Alape</t>
   </si>
   <si>
     <t>Juan Guillermo  sanchez diaz</t>
   </si>
   <si>
-    <t>Darly Valentina  López  Alape</t>
+    <t>Maria Alejandra Cumaco Yara</t>
   </si>
   <si>
     <t>Maria  del carmen bracho mayor</t>
   </si>
   <si>
-    <t>Maria Alejandra Cumaco Yara</t>
+    <t>kiara karina giraldo perez</t>
+  </si>
+  <si>
+    <t>yuidy briyith ocaño salinas</t>
   </si>
   <si>
     <t>olga natalia salazar guaquez</t>
   </si>
   <si>
-    <t>kiara karina giraldo perez</t>
-  </si>
-  <si>
-    <t>yuidy briyith ocaño salinas</t>
+    <t xml:space="preserve">paola andrea leon Velásquez </t>
   </si>
   <si>
     <t>leidy johana martinez herrera</t>
   </si>
   <si>
-    <t xml:space="preserve">paola andrea leon Velásquez </t>
+    <t>Laura alejandra jimenez valbuena</t>
   </si>
   <si>
     <t>Jessica alexandra sanchez rodriguez</t>
   </si>
   <si>
-    <t>Laura alejandra jimenez valbuena</t>
+    <t>Jonatan Mauricio Castillo Obando</t>
   </si>
   <si>
     <t>angie katherine celis sabogal</t>
   </si>
   <si>
-    <t>Jonatan Mauricio Castillo Obando</t>
+    <t>Erika Marcela Castañeda Bejarano</t>
   </si>
   <si>
     <t>edgar camilo diaz cruz</t>
   </si>
   <si>
-    <t>Erika Marcela Castañeda Bejarano</t>
+    <t>Genarina Miranda miranda  rangel</t>
   </si>
   <si>
     <t>lorena  vargas torres</t>
   </si>
   <si>
-    <t>Genarina Miranda miranda  rangel</t>
+    <t>Adriana   Ortega Gutierrez</t>
   </si>
   <si>
     <t>Diveth frayzury duran casanova</t>
   </si>
   <si>
-    <t>Adriana   Ortega Gutierrez</t>
+    <t>Jessica Jasbleidy Monroy Daza</t>
   </si>
   <si>
     <t xml:space="preserve">luz myriam Barinas cruz </t>
   </si>
   <si>
-    <t>Jessica Jasbleidy Monroy Daza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Jose Canabal Rodríguez </t>
+    <t>Maria Jose Canabal Rodríguez</t>
+  </si>
+  <si>
+    <t>Dayanne Camila Velasquez Vanegas</t>
   </si>
   <si>
     <t>Eliana Mercedes  vanegas Revelo</t>
   </si>
   <si>
-    <t>Dayanne Camila Velasquez Vanegas</t>
+    <t>Daniel  Alvarez  Hernández</t>
   </si>
   <si>
     <t>Styven Alexander Celis Alarcon</t>
   </si>
   <si>
-    <t xml:space="preserve">Daniel  Alvarez  Hernández </t>
+    <t>Giomar yirley capera peñuela</t>
   </si>
   <si>
     <t>Kmberly dnelly morera cardona</t>
   </si>
   <si>
-    <t>Giomar yirley capera peñuela</t>
-  </si>
-  <si>
-    <t>brigih guineth beltran casta?da</t>
-  </si>
-  <si>
     <t>Yefferson  Burbano Vinasco</t>
   </si>
   <si>
     <t>Norma  Rocio Conde Garcia</t>
   </si>
   <si>
-    <t>Jose Enrique  Garc?a  altuve</t>
+    <t>brigih guineth beltran castañda</t>
   </si>
   <si>
     <t>Ana Carolina Blanco Martinez</t>
@@ -152,6 +152,9 @@
     <t>Graldine  Ardila Gonzalez</t>
   </si>
   <si>
+    <t>Jose Enrique  García  altuve</t>
+  </si>
+  <si>
     <t>Yennifer Del carmen Florez Correa</t>
   </si>
   <si>
@@ -164,70 +167,67 @@
     <t>natalia  rojas duran</t>
   </si>
   <si>
-    <t>Milany Jasbleydy Cardona L?pez</t>
-  </si>
-  <si>
     <t>Doris  Coronado Monroy</t>
   </si>
   <si>
     <t>nehilibeth de los angeles  castro vasquez</t>
   </si>
   <si>
-    <t xml:space="preserve">Angela Maria Mart?nez  L?pez </t>
+    <t>Milany Jasbleydy Cardona López</t>
   </si>
   <si>
     <t>Angie Paola Sanchez Oyola</t>
   </si>
   <si>
-    <t>Cristian  Alejandro García  Pérez</t>
+    <t>Cristian  Alejandro García Pérez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angela Maria Martínez  López </t>
+  </si>
+  <si>
+    <t>Raquel Noemy Almeida Salazar</t>
+  </si>
+  <si>
+    <t>Diego Alexander Bedoya Monroy</t>
   </si>
   <si>
     <t>wendy yuranis salas mosquera</t>
   </si>
   <si>
-    <t>Raquel Noemy Almeida Salazar</t>
-  </si>
-  <si>
-    <t>Diego Alexander Bedoya Monroy</t>
+    <t>Luz Dary Ramirez Chaves</t>
+  </si>
+  <si>
+    <t>Estefany  salazar hernandez</t>
   </si>
   <si>
     <t>Laura  Jimena perilla gamba</t>
   </si>
   <si>
-    <t>Luz Dary Ramirez Chaves</t>
-  </si>
-  <si>
-    <t>Estefany  salazar hernandez</t>
+    <t>Laura Camila Caceres Bautista</t>
+  </si>
+  <si>
+    <t>jose alexander lozano ortiz</t>
   </si>
   <si>
     <t>Geraldine   rojas poveda</t>
   </si>
   <si>
-    <t>Laura Camila Caceres Bautista</t>
-  </si>
-  <si>
-    <t>jose alexander lozano ortiz</t>
+    <t xml:space="preserve">Allison Michelle Castellanos  Ramirez </t>
+  </si>
+  <si>
+    <t>juan  sebastian quesada tovar</t>
   </si>
   <si>
     <t>Dylan arley rojas barrera</t>
   </si>
   <si>
-    <t xml:space="preserve">Allison Michelle Castellanos  Ramirez </t>
-  </si>
-  <si>
-    <t>juan  sebastian quesada tovar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liseth Catherinn Benavides Ram?rez </t>
-  </si>
-  <si>
     <t>Angie Daniela Torres Gonzalez</t>
   </si>
   <si>
-    <t>Jean carlos chirinos lòpez</t>
-  </si>
-  <si>
-    <t>juan jose maldonado la cruz</t>
+    <t>Jean carlos chirinos lópez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liseth Catherinn Benavides Ramírez </t>
   </si>
   <si>
     <t>Miguel Antonio Rodriguez Viera</t>
@@ -236,24 +236,39 @@
     <t>Daissy pielange Rojas molina</t>
   </si>
   <si>
+    <t xml:space="preserve">Juan  Manuel Puerta Puerta </t>
+  </si>
+  <si>
     <t>Daniel Enrique Bracho Fuenmayor</t>
   </si>
   <si>
     <t>Angela   Barbosa Colmnares</t>
   </si>
   <si>
+    <t>Silvia maria ortiz vagas</t>
+  </si>
+  <si>
     <t>Cristian Felipe Garcia garcia</t>
   </si>
   <si>
     <t>ingrid paola hoyos sanchez</t>
   </si>
   <si>
+    <t>Angie  Catalina  Cortes Lopez</t>
+  </si>
+  <si>
     <t>Ingri estefany avendaño torres</t>
   </si>
   <si>
+    <t>lauren Sthepania guerra bastidas</t>
+  </si>
+  <si>
     <t>Wendy vanesa martinez giraldo</t>
   </si>
   <si>
+    <t>johan steven sepulveda cortes</t>
+  </si>
+  <si>
     <t>Laura daniela carrillo Morales</t>
   </si>
   <si>
@@ -269,675 +284,1311 @@
     <t>andres  orozco rodriguez</t>
   </si>
   <si>
+    <t>Laura sofia urquijo galindo</t>
+  </si>
+  <si>
     <t>Maria Jose briceño roa</t>
   </si>
   <si>
+    <t>angie tatiana Rodríguez  torres</t>
+  </si>
+  <si>
     <t>jelithza lorena Bohorquez espejo</t>
   </si>
   <si>
+    <t>Marlon Gustavo Guacari Guependo</t>
+  </si>
+  <si>
     <t>Edna Daniela Pardo Castillo</t>
   </si>
   <si>
+    <t>Valentina  preciado Mora</t>
+  </si>
+  <si>
     <t>santiago  Torres bejarano</t>
   </si>
   <si>
-    <t xml:space="preserve">Diego Andrés  Jaimes García </t>
+    <t>andrea katherine delgado rangel</t>
+  </si>
+  <si>
+    <t>Diego Andrés Jaimes García</t>
+  </si>
+  <si>
+    <t>Wilson David Cortes Romeo</t>
+  </si>
+  <si>
+    <t>Winnir  Ribianne  Guaramato  Barrios</t>
   </si>
   <si>
     <t>Antoni  jose blanquicet cera</t>
   </si>
   <si>
+    <t xml:space="preserve">Jennifer   Peña  Reyes </t>
+  </si>
+  <si>
     <t>sandra milena porras Porras</t>
   </si>
   <si>
+    <t xml:space="preserve">Angela Milena Rodríguez  Rodríguez </t>
+  </si>
+  <si>
     <t>maria gabriela villamar camacho</t>
   </si>
   <si>
+    <t>Angel Esteban Rico Bueno</t>
+  </si>
+  <si>
     <t>Sandra Nayibe Millan Millan</t>
   </si>
   <si>
+    <t>Sara esperanza beltran lopez</t>
+  </si>
+  <si>
     <t>Nicoll xiomara Fernández molina</t>
   </si>
   <si>
     <t>Nimyell Eli ecobar o brian</t>
   </si>
   <si>
+    <t>Valentina   García paez</t>
+  </si>
+  <si>
     <t>Erika Liliana Alvarez Martinez</t>
   </si>
   <si>
+    <t>angie paola herrera salcedo</t>
+  </si>
+  <si>
     <t>Jessica  Salinas Marin</t>
   </si>
   <si>
+    <t>Katherine shiara monteiro llovera</t>
+  </si>
+  <si>
     <t>Hernan david saenz sierra</t>
   </si>
   <si>
+    <t>nidian yamile pulido pulido</t>
+  </si>
+  <si>
     <t>Mayerly  Gracia Cruz</t>
   </si>
   <si>
+    <t>angie tatiana rodriguez torres</t>
+  </si>
+  <si>
+    <t>yesica tatiana medina urian</t>
+  </si>
+  <si>
     <t>Katerine  Gomez perez</t>
   </si>
   <si>
+    <t>Paula andrea rippe Villamil</t>
+  </si>
+  <si>
+    <t>Mariana   Romero Bernal</t>
+  </si>
+  <si>
     <t>Gabriel camilo ovalle ortega</t>
   </si>
   <si>
+    <t>Erika Patricia Zambrano Escorcia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brayan Duvan Buritica Ibáñez </t>
+  </si>
+  <si>
     <t>Dixie Paola Acevedo Martinez</t>
   </si>
   <si>
+    <t>maryury  Grimaldo quiroz</t>
+  </si>
+  <si>
+    <t>luis fernando bedoya rodriguez</t>
+  </si>
+  <si>
     <t>Jeison Andres Mejia Arenas</t>
   </si>
   <si>
+    <t>Gerson raul rodriguez guarin</t>
+  </si>
+  <si>
+    <t>Juan  David  castiblanco navia</t>
+  </si>
+  <si>
     <t>Jesica Paola Quintero Fernandez</t>
   </si>
   <si>
+    <t>Ingrid lizbeth gamboa corredor</t>
+  </si>
+  <si>
+    <t>yemberlin mariana escalona  trejo</t>
+  </si>
+  <si>
     <t>Jessyca Maria valdrrama verastegui</t>
   </si>
   <si>
+    <t>Maria Fernanda  Becerra  Tequia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">luis enrique gomez Villarreal </t>
+  </si>
+  <si>
     <t>Jhonibelth Enrique Jaramillo Riascos</t>
   </si>
   <si>
+    <t>paola Andrea vergara camacho</t>
+  </si>
+  <si>
+    <t>Monica Sandra burbano Burbano</t>
+  </si>
+  <si>
     <t>yusneidy yexiree daza chacon</t>
   </si>
   <si>
+    <t>valentina   Alape chilatra</t>
+  </si>
+  <si>
+    <t>Ana Carolina yancy canchano</t>
+  </si>
+  <si>
     <t>Shelsy Alejandra peña Aldana</t>
   </si>
   <si>
+    <t>Darwin asdrubal parra diaz</t>
+  </si>
+  <si>
     <t xml:space="preserve">Madhelyne  Dahyana Aguirre quiroga </t>
   </si>
   <si>
+    <t>Diana Marcela Martinez Casallas</t>
+  </si>
+  <si>
     <t>Wendy Naileth Sandoval Sanchez</t>
   </si>
   <si>
+    <t>valeska geraldine lozano rodriguez</t>
+  </si>
+  <si>
+    <t>Cenelia  oviedo torres</t>
+  </si>
+  <si>
     <t>Sandra  Yaneth urrgo leon</t>
   </si>
   <si>
+    <t>Maria del Pilar Nuñez Escobar</t>
+  </si>
+  <si>
+    <t>Erika Lorena Castro  Paez</t>
+  </si>
+  <si>
     <t>Geyver Alonso Rueda Espejo</t>
   </si>
   <si>
     <t>Kelly johana Mateus Ramirez</t>
   </si>
   <si>
+    <t>Diana Lucia Dominguez Rincon</t>
+  </si>
+  <si>
+    <t>haanna michel Rangel Gomez</t>
+  </si>
+  <si>
     <t>Laura Tatiana Hurtado  Calderon</t>
   </si>
   <si>
+    <t>Natalia  ulloa ramos</t>
+  </si>
+  <si>
+    <t>mayra alejandra mosquera mosquera</t>
+  </si>
+  <si>
+    <t>Sebastian David Diaz Ruiz</t>
+  </si>
+  <si>
     <t>Laura Daniela Martinez Diaz</t>
   </si>
   <si>
-    <t>Sebastian David Diaz Ruiz</t>
+    <t>Nicole   Guzmán Forero</t>
+  </si>
+  <si>
+    <t>sandra mireya bohorquez cadena</t>
+  </si>
+  <si>
+    <t>Maria  sullenny cordoba ortiz</t>
   </si>
   <si>
     <t>karen  gisela guillen reina</t>
   </si>
   <si>
-    <t>Maria  sullenny cordoba ortiz</t>
+    <t xml:space="preserve">Angela Tatiana  Cely Riaño </t>
+  </si>
+  <si>
+    <t>yuleisa  ramirez cordoba</t>
   </si>
   <si>
     <t>Chrismar karina gonzalez Pino</t>
   </si>
   <si>
-    <t>yuleisa  ramirez cordoba</t>
+    <t>Alexandra  Gomez Molina</t>
+  </si>
+  <si>
+    <t>mileidis  anaya madarriaga</t>
+  </si>
+  <si>
+    <t>Cristian Camilo herrera charry</t>
   </si>
   <si>
     <t>eliana betania carrasquel alvarez</t>
   </si>
   <si>
-    <t>Cristian Camilo herrera charry</t>
+    <t>OLGA  YAMILE  DIAZ RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>leidy  vanessa cordoba mena</t>
   </si>
   <si>
     <t>Adriana Maria Cabrera Rios</t>
   </si>
   <si>
-    <t>leidy  vanessa cordoba mena</t>
+    <t>kimberly dayan lara Sandoval</t>
+  </si>
+  <si>
+    <t>LUZ ALBENIS MEJIA MOLANO</t>
+  </si>
+  <si>
+    <t>Laura  vanessa cordoba aguilar</t>
   </si>
   <si>
     <t>Elizabeth  Velasquez Rivera</t>
   </si>
   <si>
-    <t>Laura  vanessa cordoba aguilar</t>
+    <t>BRAYAN STIVEN DIAZ MARIN</t>
+  </si>
+  <si>
+    <t>Neferdy tatiana Rueda suarez</t>
   </si>
   <si>
     <t>laura stephanie Gracia  rada</t>
   </si>
   <si>
-    <t>Neferdy tatiana Rueda suarez</t>
+    <t>LAURA DANIELA OBANDO GONZALEZ</t>
   </si>
   <si>
     <t>Youshuha andrehy ruiz cuerrea</t>
   </si>
   <si>
+    <t>luisa fernanda Restrepo  montero</t>
+  </si>
+  <si>
+    <t>MIGUEL ALFONSO MARTINEZ PAEZ</t>
+  </si>
+  <si>
+    <t>Bryan estvem torres jimenez</t>
+  </si>
+  <si>
     <t>Dayan  Lizeth Garcia Olmos</t>
   </si>
   <si>
-    <t>Bryan estvem torres jimenez</t>
+    <t>Lizeth Dayana Roman Pulido</t>
+  </si>
+  <si>
+    <t>Yury Vanessa Marin Galeano</t>
+  </si>
+  <si>
+    <t>felipe brayan Vargas gutierrez</t>
   </si>
   <si>
     <t>Karen Dayanna Botero Fernandez</t>
   </si>
   <si>
-    <t>felipe brayan Vargas gutierrez</t>
+    <t>brayan stiven diaz marin</t>
+  </si>
+  <si>
+    <t>Deryl Marie Campos Sanchez</t>
   </si>
   <si>
     <t>Nicolas  castro Bulla</t>
   </si>
   <si>
+    <t>Yorvert Daniel  santana  bejarano</t>
+  </si>
+  <si>
+    <t>Valentina  Santamaria Morales</t>
+  </si>
+  <si>
     <t>Vanessa Del Rosario Nieves Bravo</t>
   </si>
   <si>
-    <t>Valentina  Santamaria Morales</t>
+    <t>Julieth Valeria Angel Rozo</t>
+  </si>
+  <si>
+    <t>wilber José  Bravo romero</t>
   </si>
   <si>
     <t>Angelica  Murcia Echeverry</t>
   </si>
   <si>
+    <t>Jenny carolina camelo mendez</t>
+  </si>
+  <si>
+    <t>Natalia Andrea  Niño Fuquene</t>
+  </si>
+  <si>
     <t>allison Julieth murillo torres</t>
   </si>
   <si>
+    <t>Angelica julieth faura ortiz</t>
+  </si>
+  <si>
+    <t>Fabian  andres herrera  Trujillo</t>
+  </si>
+  <si>
     <t>Andres felipe zapata zapata</t>
   </si>
   <si>
+    <t>juan camilo pineda torres</t>
+  </si>
+  <si>
     <t>yiner arturo sierra peña</t>
   </si>
   <si>
+    <t>Jose anibal Arroyave gomez</t>
+  </si>
+  <si>
+    <t>Lilian Coromoto Rangel Ramirez</t>
+  </si>
+  <si>
     <t>Yuvinza  Liceth Falon Montoya</t>
   </si>
   <si>
+    <t>Nury  grajales Grajales</t>
+  </si>
+  <si>
     <t>yudy alexandra Barbosa fonseca</t>
   </si>
   <si>
+    <t>Rosa  Maria  Rodríguez  Peña</t>
+  </si>
+  <si>
+    <t>Yessica Andreina Contreras Pedrozo</t>
+  </si>
+  <si>
     <t>nayibe  ospina M</t>
   </si>
   <si>
+    <t>Leidy  Caterine Verastegui villalobos</t>
+  </si>
+  <si>
+    <t>maria paula cepeda peña</t>
+  </si>
+  <si>
     <t>Maria Johana Castillo Rueda</t>
   </si>
   <si>
+    <t xml:space="preserve">juan Santiago  Latorre  Martínez </t>
+  </si>
+  <si>
+    <t>Jenny Carolina Marin Tobon</t>
+  </si>
+  <si>
     <t>Juan Manuel Arguello Fereira</t>
   </si>
   <si>
+    <t>heidy yolima villamil fandiño</t>
+  </si>
+  <si>
+    <t>jennifer jazmin rojas varon</t>
+  </si>
+  <si>
     <t>Jose gregorio sulbaran rea</t>
   </si>
   <si>
+    <t>yenny paola montiel garcia</t>
+  </si>
+  <si>
+    <t>Sandra Elizabeth Agreda Jamioy</t>
+  </si>
+  <si>
     <t>Laura tatiana betancourt amaya</t>
   </si>
   <si>
+    <t>Brian David peraza lopez</t>
+  </si>
+  <si>
+    <t>Jair Antonio Bastidas Ospino</t>
+  </si>
+  <si>
     <t>Leydi Viviana Parrado Restrepo</t>
   </si>
   <si>
+    <t>joelimar isabel suarez perez</t>
+  </si>
+  <si>
+    <t>Yeini Carolina Garzon Contreras</t>
+  </si>
+  <si>
     <t>MALLERLY  CAMPOS OROZCO</t>
   </si>
   <si>
+    <t>Adrian antonio durango  Conde</t>
+  </si>
+  <si>
+    <t>Jyneth Tatiana  Aponte Galindo</t>
+  </si>
+  <si>
     <t>bertha cecila romero hernandez</t>
   </si>
   <si>
+    <t>Yoan  stiven Rusinque Rusinque</t>
+  </si>
+  <si>
+    <t>Dennys  castro Arevalo</t>
+  </si>
+  <si>
     <t>Daisy viviana roncancio novoa</t>
   </si>
   <si>
+    <t>sindy paola montalvo herrera</t>
+  </si>
+  <si>
+    <t>Cristian leonardo chaves rodriguez</t>
+  </si>
+  <si>
     <t>Jasbleidy johanna ruiz paez</t>
   </si>
   <si>
+    <t>yeny  angelica vargas Baquero</t>
+  </si>
+  <si>
+    <t>Julian dario celis arango</t>
+  </si>
+  <si>
     <t>Marly Yurley Martinez Duran</t>
   </si>
   <si>
+    <t>laura yulyana vargas panesso</t>
+  </si>
+  <si>
+    <t>Saida Yamile Romero Ospina</t>
+  </si>
+  <si>
     <t>Cindy Johanna Nieto Zamudio</t>
   </si>
   <si>
+    <t>Mileidy  Natalia Vidal Guzman</t>
+  </si>
+  <si>
+    <t>Dalia Aenlly Oviedo Cifuentes</t>
+  </si>
+  <si>
     <t>Blanca  cecilia cetina gil</t>
   </si>
   <si>
+    <t>Diana Paola Zorro Lopez</t>
+  </si>
+  <si>
+    <t>Jhonatan Esteeven Vásquez Martínez</t>
+  </si>
+  <si>
     <t>Jefferson Andres Hernandez Sanabria</t>
   </si>
   <si>
+    <t>Sara Valentina Suárez  Matta</t>
+  </si>
+  <si>
+    <t>Kevi esmeiker delgado garcia</t>
+  </si>
+  <si>
     <t>Jenny Paola Leon Garcia</t>
   </si>
   <si>
+    <t>Sebastian Fernando  López  Melo</t>
+  </si>
+  <si>
+    <t>Frederlin elena zambrano rojas</t>
+  </si>
+  <si>
     <t>Helen  dayana lozano romero</t>
   </si>
   <si>
+    <t>Nicole Zamaris cubides sanchez</t>
+  </si>
+  <si>
+    <t>Diana isabel melkiors albornoz</t>
+  </si>
+  <si>
     <t>Angie  marcela gonzalez  rios</t>
   </si>
   <si>
+    <t>Maria  jose Sanchez barrios</t>
+  </si>
+  <si>
+    <t>Steven  Eduardo Linares  Buitrago</t>
+  </si>
+  <si>
     <t>Luz damaris ortiz Rivas</t>
   </si>
   <si>
+    <t>Natalia   torres tibata</t>
+  </si>
+  <si>
+    <t>cherayll yuviry chacon moreno</t>
+  </si>
+  <si>
     <t>edwin giovanny Acosta garcia</t>
   </si>
   <si>
+    <t>Jennifer paola contreras morales</t>
+  </si>
+  <si>
+    <t>sharon  nikol rodriguez andoque</t>
+  </si>
+  <si>
     <t>Jharrinson jose gomez sanchez</t>
   </si>
   <si>
+    <t>Juanita Valentina  vanegas Nieto</t>
+  </si>
+  <si>
+    <t>Yesica  Bernal Lopez</t>
+  </si>
+  <si>
     <t>Tatiana carolina piñarete ortiz</t>
   </si>
   <si>
+    <t>maryuri yoselin huertas  silguero</t>
+  </si>
+  <si>
+    <t>miguel angel bocanegra campuzano</t>
+  </si>
+  <si>
     <t>Sayda valentina mendoza salgado</t>
   </si>
   <si>
+    <t xml:space="preserve">Maria   victoria  ángel  Sánchez </t>
+  </si>
+  <si>
+    <t>Cristian  Andrés  Jiménez  Valbuena</t>
+  </si>
+  <si>
     <t>Elvia viviana caro castro</t>
   </si>
   <si>
+    <t>angie tatiana rodriguez gutierrez</t>
+  </si>
+  <si>
+    <t>Yazmin Andrea Torres Cabeza</t>
+  </si>
+  <si>
     <t xml:space="preserve">ibeth milena  acosta peralta </t>
   </si>
   <si>
+    <t>Nicole  Dayana  Cabrera Tapiero</t>
+  </si>
+  <si>
+    <t>Leidy Viviana Ardila Guevara</t>
+  </si>
+  <si>
     <t>heidy jineth romero espejo</t>
   </si>
   <si>
-    <t xml:space="preserve">andrea carolina Bernate Jiménez </t>
+    <t>Eric santiago Rincon Marin</t>
+  </si>
+  <si>
+    <t>neferdy  tatiana rueda suarez</t>
+  </si>
+  <si>
+    <t>andrea carolina Bernate Jiménez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natalia  perez castro </t>
+  </si>
+  <si>
+    <t>luz omaida sanchez rivera</t>
   </si>
   <si>
     <t>Yuris Paola giraldo posada</t>
   </si>
   <si>
-    <t>Karen Geraldine ñ Zabala Salas</t>
+    <t>franklin jose yrigoyen salas</t>
+  </si>
+  <si>
+    <t>123124 124314 123124 1243142</t>
+  </si>
+  <si>
+    <t>Emilcen  Martinez Torres</t>
+  </si>
+  <si>
+    <t>natali  cuervo aparicio</t>
+  </si>
+  <si>
+    <t>Diego Armando Arias Vargas</t>
+  </si>
+  <si>
+    <t>Diana Valentina  Martínez  Quimbay</t>
+  </si>
+  <si>
+    <t>Brenda michelle alvarez morillo</t>
+  </si>
+  <si>
+    <t>Karen Geraldine Zabala Salas</t>
+  </si>
+  <si>
+    <t>Diana  acero camachi</t>
   </si>
   <si>
     <t>jonathan steven gonzalez restrepo</t>
   </si>
   <si>
+    <t xml:space="preserve">Roberson jose salas González </t>
+  </si>
+  <si>
     <t>Diana Carolina Barrero Puentes</t>
   </si>
   <si>
+    <t>Olga lilina rojas mianda</t>
+  </si>
+  <si>
+    <t>michael stuart ceron conde</t>
+  </si>
+  <si>
     <t>leidy  johana ardila  ospina</t>
   </si>
   <si>
-    <t>michael stuart ceron conde</t>
+    <t>Adriana patricia rojas ramirez</t>
+  </si>
+  <si>
+    <t>Paula Dayanna Vargas Cholo</t>
+  </si>
+  <si>
+    <t>luz Dary Rojas Sarmiento</t>
   </si>
   <si>
     <t>Daniel  Felipe  Ulloa  zipa</t>
   </si>
   <si>
-    <t>luz Dary Rojas Sarmiento</t>
+    <t>elkin mauricio moreno espitia</t>
+  </si>
+  <si>
+    <t>Blanca Cecilia cholo Niampira</t>
   </si>
   <si>
     <t>Luis felipe Caro cardozo</t>
   </si>
   <si>
+    <t>laura natali cardenas campos</t>
+  </si>
+  <si>
+    <t>Yuri catherine duarte villamil</t>
+  </si>
+  <si>
     <t>Yesica Natalia Ariza Ariza</t>
   </si>
   <si>
+    <t>Yurian dayana Carreño barreto</t>
+  </si>
+  <si>
+    <t>Derly Johanna Ortiz Roa</t>
+  </si>
+  <si>
     <t>ashlyn yazmin rodriguez soache</t>
   </si>
   <si>
+    <t>jhonson alexander ferreira munevar</t>
+  </si>
+  <si>
+    <t>Jonathan Alirio Ruiz Valbuena</t>
+  </si>
+  <si>
     <t>Aura Milena Fajardo Guevara</t>
   </si>
   <si>
+    <t>Angie Natalia Vergara Lozano</t>
+  </si>
+  <si>
+    <t>Yorimar lisastry ruiz velandia</t>
+  </si>
+  <si>
+    <t>Rosana   Atencia Caraballo</t>
+  </si>
+  <si>
     <t>kennedy jesus febres sanchez</t>
   </si>
   <si>
-    <t>Rosana   Atencia Caraballo</t>
+    <t xml:space="preserve">lina  paola medina   forero </t>
+  </si>
+  <si>
+    <t>Ali Francisco Escalante  Arellano</t>
+  </si>
+  <si>
+    <t>cristina paola San Martín Martínez</t>
   </si>
   <si>
     <t>Diana jackeline merchan alfonso</t>
   </si>
   <si>
-    <t xml:space="preserve">cristina paola San Martín  Martínez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">thais Nazaret  romero Jim?nez </t>
+    <t>Michelle Carolina Molina Tarazona</t>
+  </si>
+  <si>
+    <t>Michael  esneider barona gonzalez</t>
   </si>
   <si>
     <t>Geraldin cecilia garcia bejarano</t>
   </si>
   <si>
+    <t xml:space="preserve">thais Nazaret  romero Jiménez </t>
+  </si>
+  <si>
+    <t>Mariolys xiolimar rodriguez salas</t>
+  </si>
+  <si>
+    <t>dora emilce morales sanchez</t>
+  </si>
+  <si>
+    <t>yesid Santiago  Zuleta  Hernández</t>
+  </si>
+  <si>
     <t>clara yerleny gomez ropero</t>
   </si>
   <si>
-    <t xml:space="preserve">yesid Santiago  Zuleta  Hernández </t>
+    <t>yuri  gaitan triana</t>
+  </si>
+  <si>
+    <t>juana Valentina tovar velez</t>
+  </si>
+  <si>
+    <t>Bigitte dayanna jaime abella</t>
   </si>
   <si>
     <t>yenny tatiana veloz caseres</t>
   </si>
   <si>
-    <t>Bigitte dayanna jaime abella</t>
+    <t>Marisol   Castillo  Organista</t>
+  </si>
+  <si>
+    <t>Yuly Natalia Hernandez Romero</t>
+  </si>
+  <si>
+    <t>Claudia  patricia Avila  Torres</t>
   </si>
   <si>
     <t>Dayanna Carolina cardenas camacho</t>
   </si>
   <si>
-    <t>Claudia  patricia Avila  Torres</t>
+    <t>Sofia  tafur rivera</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> miguel angel rincon palomino</t>
+  </si>
+  <si>
+    <t>monica michell Gomez pichina</t>
   </si>
   <si>
     <t>Astrid janeidy morales hincapie</t>
   </si>
   <si>
-    <t>monica michell Gomez pichina</t>
+    <t>Juan valentin rondon bermudez</t>
+  </si>
+  <si>
+    <t>Maria  ,  Idelia Morales Avila</t>
   </si>
   <si>
     <t>Yudy Carolina Gutierrez Ruiz</t>
   </si>
   <si>
-    <t>Maria  ,  Idelia Morales Avila</t>
-  </si>
-  <si>
-    <t>Luz karime Rodr?guez  Salamanca</t>
-  </si>
-  <si>
-    <t>yeimy  esmeralda  Gómez  Pedroza</t>
+    <t>maria  elizabeth mercado arcos</t>
+  </si>
+  <si>
+    <t>yeimy esmeralda Gómez Pedroza</t>
+  </si>
+  <si>
+    <t>Luz karime Rodríguez  Salamanca</t>
+  </si>
+  <si>
+    <t>Patricia andreina perez morales</t>
+  </si>
+  <si>
+    <t>Sebastian mauricio bejarano hernandez</t>
   </si>
   <si>
     <t>angie juliane diaz marroquin</t>
   </si>
   <si>
-    <t>Karen Adriana Carre?o Mora</t>
+    <t>laura marcela forero serna</t>
+  </si>
+  <si>
+    <t>Imgrid  Paola Velandia Moreno</t>
   </si>
   <si>
     <t>Angie azucena rendon rodriguez</t>
   </si>
   <si>
-    <t>Alberth santiago pe?a bustos</t>
+    <t>Karen Adriana Carreño Mora</t>
+  </si>
+  <si>
+    <t>giseth jasbleidy rojas gutierrez</t>
+  </si>
+  <si>
+    <t>Brandon  Alexander Ortiz Jimenez</t>
   </si>
   <si>
     <t>Yoskary yohely corona salazar</t>
   </si>
   <si>
+    <t>Alberth santiago peña bustos</t>
+  </si>
+  <si>
+    <t>Juan  david florez cubillos</t>
+  </si>
+  <si>
+    <t>Brian Libardo Gonzalez Torres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">karen margarita Delgado Sanguino </t>
+  </si>
+  <si>
     <t>Katy andrea anaya perez</t>
   </si>
   <si>
-    <t xml:space="preserve">karen margarita Delgado Sanguino </t>
+    <t>dainuvis milagros Lopez navas</t>
+  </si>
+  <si>
+    <t>Erick Alejandro Ballesteros Gómez</t>
+  </si>
+  <si>
+    <t>Yuly  Marcela Guerrero sanchez</t>
   </si>
   <si>
     <t>Ednq Johana plazas ortiz</t>
   </si>
   <si>
-    <t>Yuly  Marcela Guerrero sanchez</t>
+    <t>jhon alexander lozano sierra</t>
+  </si>
+  <si>
+    <t>Paula  Catalina Pedroza Ballen</t>
   </si>
   <si>
     <t>Orlanny  Roemir gimenez ramos</t>
   </si>
   <si>
-    <t>Paula  Catalina Pedroza Ballen</t>
+    <t>Elena  yanguma marin</t>
+  </si>
+  <si>
+    <t>Nataly Yineth Malagon Lozada</t>
   </si>
   <si>
     <t>David Camilo Ortiz Jimenez</t>
   </si>
   <si>
-    <t>Nataly Yineth Malagon Lozada</t>
+    <t>Daniela Carolina Cardenas Mesq</t>
+  </si>
+  <si>
+    <t>Juleimis tatiana mendoza cantillo</t>
   </si>
   <si>
     <t>elisabth Leonela roa paez</t>
   </si>
   <si>
-    <t>Juleimis tatiana mendoza cantillo</t>
-  </si>
-  <si>
-    <t>Camilo Andres ramos pe?a</t>
+    <t>Jorgelys  berbesi tamanaico</t>
   </si>
   <si>
     <t>Ada Mercedes Qiñones Quiñones</t>
   </si>
   <si>
+    <t>Camilo Andres ramos peña</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bryah Giovanni  parra Ramírez </t>
+  </si>
+  <si>
+    <t>Joleidis  johana mendoza  cantillo</t>
+  </si>
+  <si>
     <t>stefany  paola cely florez</t>
   </si>
   <si>
-    <t>Joleidis  johana mendoza  cantillo</t>
+    <t>Yiseth paola garcia na</t>
+  </si>
+  <si>
+    <t>yuly  hasbleidy aguilera  sierra</t>
   </si>
   <si>
     <t>andrea  reyes collazos</t>
   </si>
   <si>
-    <t>yuly  hasbleidy aguilera  sierra</t>
+    <t>Nikoll Michelle Cardona Torres</t>
+  </si>
+  <si>
+    <t>Alba Vanessa Villarraga Novoa</t>
   </si>
   <si>
     <t>Angela natalia vallejo rios</t>
   </si>
   <si>
-    <t>Alba Vanessa Villarraga Novoa</t>
+    <t>cielo priscila salazar patiño</t>
   </si>
   <si>
     <t>Carol Natalia Santos Ortega</t>
   </si>
   <si>
-    <t>cielo priscila salazar patiño</t>
+    <t>Valeria  Orjuela Bermudez</t>
   </si>
   <si>
     <t>sandry Camila martes Castro</t>
   </si>
   <si>
-    <t>Valeria  Orjuela Bermudez</t>
-  </si>
-  <si>
-    <t>Juan Sebasti?n  yepes sanchez</t>
-  </si>
-  <si>
     <t>Gina paola malagon nieto</t>
   </si>
   <si>
+    <t>Juan Sebastián  yepes sanchez</t>
+  </si>
+  <si>
+    <t>Johan  Esneyder Montoya  varon</t>
+  </si>
+  <si>
     <t>Katherin  Lizeth Quicasaque Martinez</t>
   </si>
   <si>
-    <t>Johan  Esneyder Montoya  varon</t>
+    <t>Brayan esteban mancera moscoso</t>
+  </si>
+  <si>
+    <t>Marian elena rojas Fernandez</t>
   </si>
   <si>
     <t>claudia mercedes lopez vargas</t>
   </si>
   <si>
-    <t>Marian elena rojas Fernandez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yulieth Carolina  Gonz?lez  Oviedo </t>
+    <t>Daniel  Felipe  Trespalacios Hidalgo</t>
   </si>
   <si>
     <t>Luisa Fernanda Parra Murcia</t>
   </si>
   <si>
+    <t xml:space="preserve">Yulieth Carolina  González  Oviedo </t>
+  </si>
+  <si>
+    <t>Daniela Fernanda Rodriguez Murillo</t>
+  </si>
+  <si>
     <t>Fredy Orlando Romero Guataqui</t>
   </si>
   <si>
-    <t>Daniela Fernanda Rodriguez Murillo</t>
+    <t>Adriana Lucia Garcia Aguillon</t>
+  </si>
+  <si>
+    <t>Santiago Andrés León Torres</t>
   </si>
   <si>
     <t>Kendry  lorena mancera  jimenez</t>
   </si>
   <si>
-    <t>Santiago  Andrés  León  Torres</t>
+    <t>Lady  vanessa Pinto medrano</t>
   </si>
   <si>
     <t>Maria camila figueroa parra</t>
   </si>
   <si>
-    <t>Lady  vanessa Pinto medrano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jerson Stiben Calder?n  Rodr?guez </t>
+    <t>Yurany andrea pacheco Molano</t>
   </si>
   <si>
     <t>Sandra  Liliana velasquez cardona</t>
   </si>
   <si>
+    <t xml:space="preserve">Jerson Stiben Calderón  Rodríguez </t>
+  </si>
+  <si>
+    <t>Laura daniela castiblanco camacho</t>
+  </si>
+  <si>
     <t>laura valentina guzman vasquez</t>
   </si>
   <si>
-    <t>Laura daniela castiblanco camacho</t>
+    <t>laura Valentina  torres sierra</t>
+  </si>
+  <si>
+    <t>Paula  alejandra Gomez gonzalez</t>
   </si>
   <si>
     <t>angie camila avila rodriguez</t>
   </si>
   <si>
-    <t>Paula  alejandra Gomez gonzalez</t>
+    <t>blanca stella rojas soler</t>
+  </si>
+  <si>
+    <t>Gilbert moises blanchart herrera</t>
   </si>
   <si>
     <t>daniel fernando acosta rincon</t>
   </si>
   <si>
-    <t>Gilbert moises blanchart herrera</t>
+    <t xml:space="preserve">Yohan stiven calderon Montoya </t>
+  </si>
+  <si>
+    <t>luis  david ospino curpa</t>
   </si>
   <si>
     <t>Wendy carolina  Vargas Fontecha</t>
   </si>
   <si>
-    <t>luis  david ospino curpa</t>
+    <t>Paola  Andrea Aristizábal  Ortiz</t>
+  </si>
+  <si>
+    <t>Yair Stiven Israel  Garcia Salamanca</t>
   </si>
   <si>
     <t>rosa paola rivera torres</t>
   </si>
   <si>
-    <t>Yair Stiven Israel  Garcia Salamanca</t>
+    <t xml:space="preserve">Jenny  Natalia  Olguin Matamoros </t>
+  </si>
+  <si>
+    <t>david isaac moreno cardenas</t>
   </si>
   <si>
     <t>danna geraldine morales sierra</t>
   </si>
   <si>
-    <t>david isaac moreno cardenas</t>
+    <t>jenny nathalia Pinzon forero</t>
+  </si>
+  <si>
+    <t>natalia  paez giraldo</t>
   </si>
   <si>
     <t>isleny  carabali garzon</t>
   </si>
   <si>
-    <t>natalia  paez giraldo</t>
+    <t>Maria Camila davila ospina</t>
+  </si>
+  <si>
+    <t>yonatan  fuquene delgado</t>
   </si>
   <si>
     <t>Ruth Darians tovar Guillen</t>
   </si>
   <si>
-    <t>yonatan  fuquene delgado</t>
+    <t>Julián  david salgado zamudio</t>
   </si>
   <si>
     <t>laura alejandra ovalle lara</t>
   </si>
   <si>
+    <t>Yeimy paola escobar holguin</t>
+  </si>
+  <si>
+    <t>Kimberly   potier González</t>
+  </si>
+  <si>
     <t>luis anderson herrera guevara</t>
   </si>
   <si>
-    <t xml:space="preserve">Kimberly   potier González </t>
+    <t>Adrian Segundo Fernandez Yguaran</t>
   </si>
   <si>
     <t>Elis yojana carvajal legro</t>
   </si>
   <si>
-    <t>Michael  Adri?n  Pantano Garcia</t>
+    <t xml:space="preserve">alisson  porras  Velásquez </t>
   </si>
   <si>
     <t>edgar harvey bernal salamanca</t>
   </si>
   <si>
+    <t>Michael  Adrián  Pantano Garcia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yesica Alejandra  Mejía  Díaz </t>
+  </si>
+  <si>
     <t>Sandra  viviana Caicedo escamilla</t>
   </si>
   <si>
+    <t>neyzon estiven niño tapiero</t>
+  </si>
+  <si>
+    <t>Juan Pablo Rodriguez Garcia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Daniela  cubillos vargas </t>
   </si>
   <si>
-    <t>Juan Pablo Rodriguez Garcia</t>
-  </si>
-  <si>
-    <t>Sammier Yufreen Mu?oz Garcia</t>
+    <t>Damaris carolina salas bastidas</t>
   </si>
   <si>
     <t>leidy paola galvis estevez</t>
   </si>
   <si>
+    <t>Sammier Yufreen Muñoz Garcia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emmanuel José  Paredes González </t>
+  </si>
+  <si>
+    <t>ivan felipe castro ramirez</t>
+  </si>
+  <si>
     <t>Danna  Murcia Cortes</t>
   </si>
   <si>
-    <t>ivan felipe castro ramirez</t>
-  </si>
-  <si>
-    <t>Mar?a  jose medina herrera</t>
+    <t>Jenmily Paola Piña Gonzalez</t>
   </si>
   <si>
     <t>leidy yisel suarez lopez</t>
   </si>
   <si>
+    <t>María  jose medina herrera</t>
+  </si>
+  <si>
+    <t>Osmarys chiquinquira redondo chaparro</t>
+  </si>
+  <si>
+    <t>Ivan Dario Velandia Coronel</t>
+  </si>
+  <si>
     <t>Viviana  perez martinez</t>
   </si>
   <si>
-    <t>Ivan Dario Velandia Coronel</t>
+    <t>Ester  Alarcón  Torres</t>
   </si>
   <si>
     <t>juan  pablo pelaez sierra</t>
   </si>
   <si>
+    <t>enid  alarcon  torres</t>
+  </si>
+  <si>
+    <t>Sara julieth lavado sanchez</t>
+  </si>
+  <si>
     <t>Laura Daniela huertas romero</t>
   </si>
   <si>
-    <t>Sara julieth lavado sanchez</t>
+    <t>Gina gabriela garcia deaza</t>
   </si>
   <si>
     <t>Saday Steffany sqnchez Valencia</t>
   </si>
   <si>
-    <t>Gina gabriela garcia deaza</t>
-  </si>
-  <si>
-    <t>lina gisseth nu?ez esteban</t>
-  </si>
-  <si>
     <t>Jhon mario reales rivera</t>
   </si>
   <si>
-    <t>Natacha carolina casta?eda sanchez</t>
+    <t>lina gisseth nuñez esteban</t>
+  </si>
+  <si>
+    <t>Jefferson  Alexander  caro  osorio</t>
   </si>
   <si>
     <t>mayerly  medina garzon</t>
   </si>
   <si>
+    <t>Natacha carolina castañeda sanchez</t>
+  </si>
+  <si>
+    <t>Leydi carolina castillo medina</t>
+  </si>
+  <si>
     <t>Lizeth dayana ardila arenas</t>
   </si>
   <si>
+    <t>karol gisel molano cortes</t>
+  </si>
+  <si>
     <t>Andrea del pilar  conde rocha</t>
   </si>
   <si>
+    <t>Ybeth andrea plata uzcategui</t>
+  </si>
+  <si>
     <t>Aura Marcela angulo mesa</t>
   </si>
   <si>
+    <t>Lady tatiana medina sanchez</t>
+  </si>
+  <si>
     <t>maria alejandra Jimenez castellanos</t>
   </si>
   <si>
-    <t>Lady tatiana medina sanchez</t>
+    <t>Anyi  Paola Gonzalez Moreno</t>
   </si>
   <si>
     <t>Paola Andrea  Ruiz  Chica</t>
   </si>
   <si>
-    <t>Anyi  Paola Gonzalez Moreno</t>
+    <t>Yanathan  Jesus Alfonso Guerrero</t>
   </si>
   <si>
     <t>Paula  Andrea polo reina</t>
   </si>
   <si>
-    <t>Yanathan  Jesus Alfonso Guerrero</t>
-  </si>
-  <si>
-    <t>laura valentina pe?a Mahecha</t>
-  </si>
-  <si>
     <t>Nicolas Armando Mulato Martinez</t>
   </si>
   <si>
-    <t>Eimy Yuliana Rodr?guez  Gonzalez</t>
+    <t>laura valentina peña Mahecha</t>
+  </si>
+  <si>
+    <t>Lorena ayled sanchez rincon</t>
   </si>
   <si>
     <t>Yina paola sanchez herrera</t>
   </si>
   <si>
+    <t>Eimy Yuliana Rodríguez  Gonzalez</t>
+  </si>
+  <si>
+    <t>Maria Fernanda Fonseca Rey</t>
+  </si>
+  <si>
+    <t>Tania marcela rodriguez valero</t>
+  </si>
+  <si>
     <t>Yamith  aristizabal ultengo</t>
   </si>
   <si>
-    <t>Tania marcela rodriguez valero</t>
+    <t>natalia  andrea Jiménez  mendoza</t>
+  </si>
+  <si>
+    <t>Kimberly Virginia  Roa colmenares</t>
   </si>
   <si>
     <t>angelica Patricia camacho rodriguez</t>
   </si>
   <si>
-    <t>Kimberly Virginia  Roa colmenares</t>
-  </si>
-  <si>
-    <t>mayerly Lizeth Rodr?guez  arias</t>
+    <t>Andrea  murillo  medina</t>
   </si>
   <si>
     <t>Yordan fabian Cortes Cardenas</t>
   </si>
   <si>
-    <t>Nashly  alejandra pi?eros gomez</t>
+    <t>mayerly Lizeth Rodríguez  arias</t>
+  </si>
+  <si>
+    <t>paula yadira vanegas freyte</t>
   </si>
   <si>
     <t>Yohana Andrea Lemus Palacios</t>
   </si>
   <si>
+    <t>Nashly  alejandra piñeros gomez</t>
+  </si>
+  <si>
+    <t>paola andrea quintero Quintero</t>
+  </si>
+  <si>
+    <t>jimena alexandra avila guarin</t>
+  </si>
+  <si>
     <t>Cindy Tatiana Casallas Arias</t>
   </si>
   <si>
-    <t>jimena alexandra avila guarin</t>
+    <t>maria Jose Villarreal  Cruz</t>
   </si>
   <si>
     <t>Yolima  peñates payares</t>
   </si>
   <si>
+    <t>nelson javier Rincon silva</t>
+  </si>
+  <si>
     <t>Marwin Jesus Liendo Romero</t>
   </si>
   <si>
@@ -950,40 +1601,55 @@
     <t>angie karina suarez arambulo</t>
   </si>
   <si>
-    <t>Viviana  González  lenis</t>
+    <t>Viviana  González lenis</t>
+  </si>
+  <si>
+    <t>ana yibe saenz pinzon</t>
   </si>
   <si>
     <t>Angelica Daniela Rada Dussan</t>
   </si>
   <si>
+    <t xml:space="preserve">Yuri Katherine  pinzon Quimbaya </t>
+  </si>
+  <si>
     <t>maria paula garcia leon</t>
   </si>
   <si>
     <t>mariana   orjuela ferreira</t>
   </si>
   <si>
+    <t>Darly Jhojana Galvez Vargas</t>
+  </si>
+  <si>
     <t>Lady Johana Hoyos Saenz</t>
   </si>
   <si>
-    <t>Darly Jhojana Galvez Vargas</t>
+    <t>brenda  Aristiguieta kelly</t>
+  </si>
+  <si>
+    <t>laura katherine ramirez piraban</t>
   </si>
   <si>
     <t>Samuel Esteban Gomez Llanos</t>
   </si>
   <si>
-    <t>laura katherine ramirez piraban</t>
+    <t>diego felipe padilla abril</t>
+  </si>
+  <si>
+    <t>lina vanessa Villanueva  rojas</t>
   </si>
   <si>
     <t>Hayver Stiven Garzon Antonio</t>
   </si>
   <si>
-    <t>lina vanessa Villanueva  rojas</t>
+    <t>Ingrid Natalia Ã‘ustes Puentes</t>
   </si>
   <si>
     <t>Karen Yirley Galindo  Clavijo</t>
   </si>
   <si>
-    <t>Ingrid Natalia ??ustes Puentes</t>
+    <t>Laura nicoll leon santana</t>
   </si>
   <si>
     <t>leidy carolina ruiz cardenas</t>
@@ -998,6 +1664,9 @@
     <t>Luisa Coromoto  padilla  castillo</t>
   </si>
   <si>
+    <t>keidy giseth caraballo zamudio</t>
+  </si>
+  <si>
     <t>leidy melissa salamanca mendoza</t>
   </si>
   <si>
@@ -1013,120 +1682,144 @@
     <t>Lineth gabriela sanchez zapata</t>
   </si>
   <si>
+    <t>Karina  viviana urrego gomez</t>
+  </si>
+  <si>
+    <t>daniela catalina paredes rodriguez</t>
+  </si>
+  <si>
     <t>Angeica Dayana Acosta Cabrera</t>
   </si>
   <si>
-    <t>daniela catalina paredes rodriguez</t>
+    <t>liseht cristina valencia vargas</t>
+  </si>
+  <si>
+    <t>Obeyda  Varagas mejia</t>
   </si>
   <si>
     <t>Erika paola fonseca uneme</t>
   </si>
   <si>
-    <t>Obeyda  Varagas mejia</t>
+    <t>Edgar Alejandro Ortiz Ubaque</t>
   </si>
   <si>
     <t>Dary  villarraga salamanca</t>
   </si>
   <si>
-    <t>Edgar Alejandro Ortiz Ubaque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">darwin  Jim?nez  blanco </t>
+    <t>Niyibell  vargas pineda</t>
   </si>
   <si>
     <t>Mariana Lucia Ramirez Cardenas</t>
   </si>
   <si>
+    <t xml:space="preserve">darwin  Jiménez  blanco </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniela  espinosa gomez </t>
+  </si>
+  <si>
+    <t>Erika Julieth Clavijo Barbosa</t>
+  </si>
+  <si>
     <t>Laura  yeraldin mahecha pinilla</t>
   </si>
   <si>
-    <t>Erika Julieth Clavijo Barbosa</t>
+    <t>Edna paola cortes Alvarez</t>
   </si>
   <si>
     <t>manuel danilo cucunuba --</t>
   </si>
   <si>
-    <t>Edna paola cortes Alvarez</t>
+    <t>hedy Yeraldin forero osorio</t>
+  </si>
+  <si>
+    <t>Nicolás Mateo Blanco Guzmán</t>
   </si>
   <si>
     <t>Johan stiven perez tovar</t>
   </si>
   <si>
-    <t xml:space="preserve">Nicolás  Mateo Blanco Guzmán </t>
+    <t>andreina stephania ortiz machado</t>
   </si>
   <si>
     <t>Juan David Guerrero Forero</t>
   </si>
   <si>
-    <t>andreina stephania ortiz machado</t>
+    <t>Francy daniela lozano medina</t>
   </si>
   <si>
     <t>nicolas  diaz puerto</t>
   </si>
   <si>
-    <t>Francy daniela lozano medina</t>
+    <t>michelle alejandra robles herrera</t>
   </si>
   <si>
     <t>Karol Valentina Botero Osorio</t>
   </si>
   <si>
-    <t>michelle alejandra robles herrera</t>
-  </si>
-  <si>
-    <t>Duvan Felipe Guti?rrez  Leyton</t>
-  </si>
-  <si>
     <t>Laura Camila pedraza hernandez</t>
   </si>
   <si>
+    <t>Duvan Felipe Gutiérrez  Leyton</t>
+  </si>
+  <si>
+    <t>Natalia   ariza  torres</t>
+  </si>
+  <si>
     <t>Daniela  alturo montealegre</t>
   </si>
   <si>
-    <t>Natalia   ariza  torres</t>
+    <t>Flor Alba Duarte Zarate</t>
   </si>
   <si>
     <t>Johan stiven suarez gallego</t>
   </si>
   <si>
-    <t>Flor Alba Duarte Zarate</t>
+    <t>Dixon Alexis Leal Chaviel</t>
+  </si>
+  <si>
+    <t>leydi  carolina rochab rodriguez</t>
   </si>
   <si>
     <t>emily faylin gonzalez castilo</t>
   </si>
   <si>
-    <t>leydi  carolina rochab rodriguez</t>
+    <t>omar dari jauregui rivera</t>
+  </si>
+  <si>
+    <t>Ana maria amador delgado</t>
   </si>
   <si>
     <t>Joaquin esteban  gamboa Gamboa</t>
   </si>
   <si>
-    <t>Ana maria amador delgado</t>
+    <t xml:space="preserve">Yajaira  urania narvaez Narváez </t>
+  </si>
+  <si>
+    <t>Andrea  Yulithza Talero Mendoza</t>
   </si>
   <si>
     <t>anyi  katerine sarmiento  ardila</t>
   </si>
   <si>
-    <t>Andrea  Yulithza Talero Mendoza</t>
-  </si>
-  <si>
-    <t>Angela  Ar?valo lopez</t>
-  </si>
-  <si>
     <t>carol vanesa sierra castiblanco</t>
   </si>
   <si>
+    <t>Angela  Arévalo lopez</t>
+  </si>
+  <si>
+    <t>andres felipe monsalve martinez</t>
+  </si>
+  <si>
     <t>ana karina contreras carvajal</t>
   </si>
   <si>
-    <t>andres felipe monsalve martinez</t>
-  </si>
-  <si>
-    <t>Dalin jose pe?a perez</t>
-  </si>
-  <si>
     <t>Valentina   Ramos Molina</t>
   </si>
   <si>
+    <t>Dalin jose peña perez</t>
+  </si>
+  <si>
     <t>yennifer carmen florez corre</t>
   </si>
   <si>
@@ -1139,16 +1832,16 @@
     <t>Diana Marcela Castillo Marroquin</t>
   </si>
   <si>
+    <t>Diana  marcela rodriguez vanegas</t>
+  </si>
+  <si>
     <t>Shaira Yulexis  Riveros Otavo</t>
   </si>
   <si>
-    <t>Diana  marcela rodriguez vanegas</t>
-  </si>
-  <si>
     <t>Alison  Moreno pabon</t>
   </si>
   <si>
-    <t>heidy Tatiana  ca?on garzon</t>
+    <t>heidy Tatiana  cañon garzon</t>
   </si>
   <si>
     <t>Boris Steven Brochero Cristancho</t>
@@ -1157,51 +1850,51 @@
     <t>Karen Zulay Mahecha Segura</t>
   </si>
   <si>
+    <t>jeisson andres diaz peña</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gloria Edith Bejarano Bejarano </t>
   </si>
   <si>
-    <t>jeisson andres diaz peña</t>
-  </si>
-  <si>
-    <t>sara Sof?a  Z??iga  chimbaco</t>
-  </si>
-  <si>
     <t>maryi catherine lozano Quintero</t>
   </si>
   <si>
+    <t>sara Sofía  Zúñiga  chimbaco</t>
+  </si>
+  <si>
     <t>angela valentina morales bohorquez</t>
   </si>
   <si>
+    <t>viviana patricia mahecha rodriguez</t>
+  </si>
+  <si>
     <t>Erika johanna jerez aldana</t>
   </si>
   <si>
-    <t>viviana patricia mahecha rodriguez</t>
+    <t>heiner enrique mejia  florez</t>
   </si>
   <si>
     <t>Carol  tatiana jerez aldana</t>
   </si>
   <si>
-    <t>heiner enrique mejia  florez</t>
+    <t>Nicolas Steban Baron Escarraga</t>
   </si>
   <si>
     <t>Andrea Stephania Garcia Colorado</t>
   </si>
   <si>
-    <t>Nicolas Steban Baron Escarraga</t>
+    <t>diana marcela benavidez quevedo</t>
   </si>
   <si>
     <t>Alberto jose campo socarras</t>
   </si>
   <si>
-    <t>diana marcela benavidez quevedo</t>
+    <t>anyi mayerly perez carreño</t>
   </si>
   <si>
     <t>andrea fernanda rodriguez Tarazona</t>
   </si>
   <si>
-    <t>anyi mayerly perez carreño</t>
-  </si>
-  <si>
     <t>Nancy johana porras palacios</t>
   </si>
   <si>
@@ -1214,21 +1907,18 @@
     <t>Liney Daniela Hernandez Hernandez</t>
   </si>
   <si>
+    <t>July Alexandra Gonzalez Bernal</t>
+  </si>
+  <si>
     <t>Ludis jhoana Castro bastidas</t>
   </si>
   <si>
-    <t>July Alexandra Gonzalez Bernal</t>
+    <t>antony  rios Zambrano</t>
   </si>
   <si>
     <t>Maira yeraldin ruiz gordo</t>
   </si>
   <si>
-    <t>antony  rios Zambrano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeimmy  constanza Sanabria  Chinchilla </t>
-  </si>
-  <si>
     <t>diana katerine naranjo valencia</t>
   </si>
   <si>
@@ -1259,12 +1949,12 @@
     <t>josé david cordoba mosquera</t>
   </si>
   <si>
+    <t>maria luisa angulo osorio</t>
+  </si>
+  <si>
     <t>marta izabel  alzate torres</t>
   </si>
   <si>
-    <t>maria luisa angulo osorio</t>
-  </si>
-  <si>
     <t>stefany gissel sarmiento copete</t>
   </si>
   <si>
@@ -1283,18 +1973,96 @@
     <t>deily  viviana agudelo rico</t>
   </si>
   <si>
+    <t>Heydi  Viviana Mahecha Mahecha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brandon   Moncada Pinzon </t>
+  </si>
+  <si>
+    <t>Carla  Alejandra Caldera Lilo</t>
+  </si>
+  <si>
+    <t>Adriana De pilar  Aguilar Rodriguez</t>
+  </si>
+  <si>
     <t>Ani paola torres peña</t>
   </si>
   <si>
     <t>Daniel Felipe Cortes londoño</t>
   </si>
   <si>
+    <t>Angelica  Patricia  Montalvo  Cobos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuli  Andrea  Laiton  Buitrago </t>
+  </si>
+  <si>
+    <t>Hans  David  Marulanda  Perez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">natalia   Duran  Bustamante </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea  Carolina  Lopez  Guerrero </t>
+  </si>
+  <si>
+    <t>Diana Sofia Moncada Rodriguez</t>
+  </si>
+  <si>
+    <t>Laura  Daniela  Algarra Tavera</t>
+  </si>
+  <si>
+    <t>Luz Marina Ayala Sepulveda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laura  Daniela  Pineda  Tovar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angela  Leal  Camargo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sergio  Daniel  Ortiz  Martinez </t>
+  </si>
+  <si>
+    <t>Eimi Mariana cubillos Agredo</t>
+  </si>
+  <si>
+    <t>andres felipe salcedo fernandez</t>
+  </si>
+  <si>
     <t>Graciela Carolina Gamboa Rivas</t>
   </si>
   <si>
+    <t>Bryan Nicolas Montenegro .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Camila Ovalle  Chaparro </t>
+  </si>
+  <si>
     <t>Denis Carolina Padilla Diaz</t>
   </si>
   <si>
+    <t>Diana  Marcela Parra Bustamante</t>
+  </si>
+  <si>
+    <t>Lizeth  Alexandra Martinez Sastoque</t>
+  </si>
+  <si>
+    <t>Luis Guillermo Silva Quintana</t>
+  </si>
+  <si>
+    <t>Ana Isabel  Mejia Franklin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">laura  marcela mendoza  betancourt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">diana   Guerra Verano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andres  Felipe  Cordoba  Beltran </t>
+  </si>
+  <si>
     <t>Tania Marcela Henao Dorado</t>
   </si>
   <si>
@@ -1307,7 +2075,13 @@
     <t>Linda Katherine Velasquez Castillo</t>
   </si>
   <si>
-    <t>Laura Alejandra  Sanchez Ordo?ez</t>
+    <t>ingrid Yulieth  bernal hernandez</t>
+  </si>
+  <si>
+    <t>Ana  Rosa Mercado Mercado</t>
+  </si>
+  <si>
+    <t>Laura Alejandra  Sanchez Ordoñez</t>
   </si>
   <si>
     <t>veronica del valle marquez rivas</t>
@@ -1316,12 +2090,30 @@
     <t xml:space="preserve">Laura Nathalia Mogollon  Ruiz </t>
   </si>
   <si>
+    <t>Antonny Jose Soto fernandez</t>
+  </si>
+  <si>
+    <t>Denisse Giannyna Gonzalez Cifuentes</t>
+  </si>
+  <si>
+    <t>Deisy Katerin Bohorquez Albarracin</t>
+  </si>
+  <si>
+    <t>Laura  Stefanny Florez Santafe</t>
+  </si>
+  <si>
+    <t>aura Maria Almonacid Cuenca</t>
+  </si>
+  <si>
     <t>Natalia andrea molina  herrera</t>
   </si>
   <si>
     <t>Yovana Paola Pedrozo Orozco</t>
   </si>
   <si>
+    <t xml:space="preserve">Monica Alejandra Rozo Beltran </t>
+  </si>
+  <si>
     <t>Nellys Paola Gonzalez Centeno</t>
   </si>
   <si>
@@ -1331,10 +2123,13 @@
     <t>Juan  David  Ramirez Torres</t>
   </si>
   <si>
+    <t xml:space="preserve">Soraya  Paola Mejia  Barranco </t>
+  </si>
+  <si>
     <t>Rafael Ricardo Roa Arce</t>
   </si>
   <si>
-    <t>Jenny Rocio  Brice?o Martinez</t>
+    <t>Jenny Rocio  Briceño Martinez</t>
   </si>
   <si>
     <t>Lina Vanessa Artunduaga Montero</t>
@@ -1352,6 +2147,12 @@
     <t>Eudomar mario rojas salazar</t>
   </si>
   <si>
+    <t>Jennifer Daniela Sanchez Leon</t>
+  </si>
+  <si>
+    <t>Alondra Maria  Vivas Cadenas</t>
+  </si>
+  <si>
     <t>Andrea Katherine Bejarano Herrera</t>
   </si>
   <si>
@@ -1382,13 +2183,13 @@
     <t>magda rocio ackine castillo</t>
   </si>
   <si>
+    <t>gilma  victoria valencia</t>
+  </si>
+  <si>
     <t>Natalia Lorena Diaz Lopez</t>
   </si>
   <si>
-    <t>gilma  victoria valencia</t>
-  </si>
-  <si>
-    <t>Carlos  andres casta?eda chaparro</t>
+    <t>Carlos  andres castañeda chaparro</t>
   </si>
   <si>
     <t>Jonathan  Enrique Hernandez Orozco</t>
@@ -1397,51 +2198,192 @@
     <t>Diana  Carolina  Sierra .</t>
   </si>
   <si>
+    <t>Vlad Alexandere Traslaviña Diaz</t>
+  </si>
+  <si>
+    <t>VIP Suba</t>
+  </si>
+  <si>
+    <t>Edwin Fernando Patiño Vargas</t>
+  </si>
+  <si>
+    <t>Daniel Esteven Pulido Mora</t>
+  </si>
+  <si>
+    <t>Robinson Alejandro Guateros Rodriguez</t>
+  </si>
+  <si>
+    <t>Sharon Estefani Cuestas Espinzo</t>
+  </si>
+  <si>
+    <t>Yasmin  Gomez Ariza</t>
+  </si>
+  <si>
+    <t>Jhonathan David Miranda Lupuz</t>
+  </si>
+  <si>
+    <t>Diana Catherine Romero Gaviria</t>
+  </si>
+  <si>
+    <t>Gabriela  Escobar Riveros</t>
+  </si>
+  <si>
+    <t>Angela Viviana Fuentes Fuentes</t>
+  </si>
+  <si>
+    <t>Karen Dayana Gonzales Duque</t>
+  </si>
+  <si>
+    <t>Camilo Andres Ruiz Rodriguez</t>
+  </si>
+  <si>
+    <t>Luis Felipe Ruvio Jimenes</t>
+  </si>
+  <si>
+    <t>Karen Esteibi Bejarano Hernandez</t>
+  </si>
+  <si>
+    <t>Ingrid Yulieth Bernal Bernal</t>
+  </si>
+  <si>
+    <t>Sandra yohana Duque Forero</t>
+  </si>
+  <si>
+    <t>Laura Vanessa Puentes Barrero</t>
+  </si>
+  <si>
+    <t>Sandra Milena Cupu Castillo</t>
+  </si>
+  <si>
+    <t>Erick David Potrina Castillo</t>
+  </si>
+  <si>
+    <t>Saira  Silva Aldana</t>
+  </si>
+  <si>
+    <t>Cristian Camilo Pedraza Camargo</t>
+  </si>
+  <si>
+    <t>LENIS INGRID Montero Montero</t>
+  </si>
+  <si>
+    <t>Maria Fernanda Peña Torres</t>
+  </si>
+  <si>
+    <t>Michell  Scarpetta Cabezas</t>
+  </si>
+  <si>
+    <t>Paulo Andre Verdugo Moreno</t>
+  </si>
+  <si>
+    <t>julie Paola Bojaca Ahumada</t>
+  </si>
+  <si>
+    <t>Daniela Alexandra Laguna Moreno</t>
+  </si>
+  <si>
+    <t>Carolina  La Torre Serrano</t>
+  </si>
+  <si>
+    <t>Jhonathan De Jesus Manzanares Grillet</t>
+  </si>
+  <si>
+    <t>Yeritzo . Culma Aroca</t>
+  </si>
+  <si>
+    <t>Tatiana  Acuña Parra</t>
+  </si>
+  <si>
     <t>jacqueline del valle peña peña</t>
   </si>
   <si>
-    <t>VIP Suba</t>
+    <t>Karen Daniela Castellana Chiquito</t>
   </si>
   <si>
     <t>emely beatriz marcano rivas</t>
   </si>
   <si>
+    <t>Nelcy  Yulieth Bautista Garcia</t>
+  </si>
+  <si>
+    <t>Angie Paola Laguna Rincon</t>
+  </si>
+  <si>
+    <t>Nidia  Consuelo Guevarra Uribe</t>
+  </si>
+  <si>
     <t>lizeth  lorena gracia gracia</t>
   </si>
   <si>
+    <t>Levis Esther De La Torre Garcia</t>
+  </si>
+  <si>
     <t>sandra milena hernadez corredor</t>
   </si>
   <si>
+    <t>Aries  Velarde Diaz</t>
+  </si>
+  <si>
     <t>maria elena anaya guerra</t>
   </si>
   <si>
+    <t>Fredy Octavio Amado Cruz</t>
+  </si>
+  <si>
+    <t>Milagros  Del Barrio Cova</t>
+  </si>
+  <si>
     <t>marian  stetefania fonseca camargo</t>
   </si>
   <si>
     <t>ana isabel de la hoz florian</t>
   </si>
   <si>
+    <t>Elcy Johana Avello Melo</t>
+  </si>
+  <si>
     <t>francia magaly casique suarez</t>
   </si>
   <si>
+    <t>Gabriela Alejandra Mosquera Sanchez</t>
+  </si>
+  <si>
     <t>rosa yorley hurtado medina</t>
   </si>
   <si>
+    <t>Jency Nathaly Sanchez Toloza</t>
+  </si>
+  <si>
     <t>angie carolina martinez tapias</t>
   </si>
   <si>
+    <t>Adrian Javier Gonzales Talavera</t>
+  </si>
+  <si>
     <t>yesenia  vasquez yate</t>
   </si>
   <si>
+    <t>Wuilmar  Li Moreno</t>
+  </si>
+  <si>
     <t>katherin julieth ramirez rocha</t>
   </si>
   <si>
+    <t>stephin  dayanna tellez mercado</t>
+  </si>
+  <si>
     <t>jessica  cepeda roa</t>
   </si>
   <si>
+    <t>anndrei vanessa lopez reinoso</t>
+  </si>
+  <si>
     <t>johanna coromoto contreras suarez</t>
   </si>
   <si>
+    <t>angie lorena velasco maldonado</t>
+  </si>
+  <si>
     <t>luisa fernanda bernate bernal</t>
   </si>
   <si>
@@ -1475,12 +2417,21 @@
     <t>eileen galeth delgado medina</t>
   </si>
   <si>
+    <t>dayana mishelle guerra arguello</t>
+  </si>
+  <si>
     <t>daisy maria quintana arango</t>
   </si>
   <si>
+    <t>julian augusto pava arias</t>
+  </si>
+  <si>
     <t>kevin alberto  nieto mejia</t>
   </si>
   <si>
+    <t>jenny vanessa ruiz blanco</t>
+  </si>
+  <si>
     <t>brayan estiben gonzalez lurduy</t>
   </si>
   <si>
@@ -1502,12 +2453,18 @@
     <t>brayan camilo gonzalez rodriguez</t>
   </si>
   <si>
+    <t>erica nayerly burgos correa</t>
+  </si>
+  <si>
     <t>yaris maria estremor torres</t>
   </si>
   <si>
     <t>laura milena carrillo aranda</t>
   </si>
   <si>
+    <t>yoliria estela griman cuello</t>
+  </si>
+  <si>
     <t>cleiser marina mota  torres</t>
   </si>
   <si>
@@ -1598,6 +2555,9 @@
     <t>yenifer lizeth tauta garcia</t>
   </si>
   <si>
+    <t>gabriela carolina ramirez vera</t>
+  </si>
+  <si>
     <t>michael eliud hurtado cortes</t>
   </si>
   <si>
@@ -1610,6 +2570,9 @@
     <t>yilber eduardo herrenio chavarro</t>
   </si>
   <si>
+    <t>Diana Paola Cabiativa Rojas</t>
+  </si>
+  <si>
     <t xml:space="preserve">cristo  francisco garcia polanco </t>
   </si>
   <si>
@@ -1634,13 +2597,145 @@
     <t>aura  esther  pacheco orozco</t>
   </si>
   <si>
+    <t>Paula Andrea Gomez Hilarion</t>
+  </si>
+  <si>
     <t>santiago   fuentes  fuentes</t>
   </si>
   <si>
+    <t>Nicole Clariza Lozano Herrera</t>
+  </si>
+  <si>
     <t>andrea   catherine  tovar galavis</t>
   </si>
   <si>
+    <t>Linda  Nathali Bernal Sierra</t>
+  </si>
+  <si>
     <t>sara   tatiana acosta gonzales</t>
+  </si>
+  <si>
+    <t>Erika Joana Ravelo Rodriguez</t>
+  </si>
+  <si>
+    <t>David Jesus Contreras Suarez</t>
+  </si>
+  <si>
+    <t>Diana Marcela Martinez Corre</t>
+  </si>
+  <si>
+    <t>Valentina  Rojaz Gonzales</t>
+  </si>
+  <si>
+    <t>Yixenia  Bustos Bermudez</t>
+  </si>
+  <si>
+    <t>Maria Jose Riveros Jimenez</t>
+  </si>
+  <si>
+    <t>jeniffer  cristina lagos morales</t>
+  </si>
+  <si>
+    <t>Jenifer  Acosta Severiche</t>
+  </si>
+  <si>
+    <t>cristian  camilo niño rodriguez</t>
+  </si>
+  <si>
+    <t>miguel angel avila soler</t>
+  </si>
+  <si>
+    <t>yangelys  thayliz ramos bellos</t>
+  </si>
+  <si>
+    <t>luz angela caro riaño</t>
+  </si>
+  <si>
+    <t>josefa liliana bayona cordero</t>
+  </si>
+  <si>
+    <t>miguel angel lopez usuga</t>
+  </si>
+  <si>
+    <t>Camilo Andres Cortes Mora</t>
+  </si>
+  <si>
+    <t>Reymon David Almera Bermudez</t>
+  </si>
+  <si>
+    <t>Camilo  Palacio Romero</t>
+  </si>
+  <si>
+    <t>Juan Carlos Ocampo Perez</t>
+  </si>
+  <si>
+    <t>Brayan Esteven Godoy Gaitan</t>
+  </si>
+  <si>
+    <t>Auroroa  Aguilar Zanahiria</t>
+  </si>
+  <si>
+    <t>Angella Giselle Garzon  Contreras</t>
+  </si>
+  <si>
+    <t>Carolina Alexandra Buitrago Romero</t>
+  </si>
+  <si>
+    <t>Lorena  Medina Celis</t>
+  </si>
+  <si>
+    <t>jonhatan Alejandro Farias Lozada</t>
+  </si>
+  <si>
+    <t>Laura Camila Zambrano Boyaca</t>
+  </si>
+  <si>
+    <t>Daymer Jose Nieves Villalobos</t>
+  </si>
+  <si>
+    <t>Natalia Andrea Cuervo Urribe</t>
+  </si>
+  <si>
+    <t>Antonella Maria Bustamante  Riquett</t>
+  </si>
+  <si>
+    <t>Dana Nicole Gamboa sarmiento</t>
+  </si>
+  <si>
+    <t>Johan Manuel Orian Ramirez</t>
+  </si>
+  <si>
+    <t>Nathaly  Granados Tere</t>
+  </si>
+  <si>
+    <t>Jhonthan Stephano Vargas Botero</t>
+  </si>
+  <si>
+    <t>Newman Alberto Piriera Mendoza</t>
+  </si>
+  <si>
+    <t>Teaniz Yolima Teran Soto</t>
+  </si>
+  <si>
+    <t>Saray Yoreley Herrera Jaramillos</t>
+  </si>
+  <si>
+    <t>Jose Luis Giro Velazcos</t>
+  </si>
+  <si>
+    <t>Genesis  Catherine Garcia Pacheco</t>
+  </si>
+  <si>
+    <t>Ginneth Marcela Oscos Vargas</t>
+  </si>
+  <si>
+    <t>Jefferson Steven Molina Tique</t>
+  </si>
+  <si>
+    <t>Nestor Alejandro Jaimes Velandia</t>
+  </si>
+  <si>
+    <t>Natalia  Linares Cruz</t>
   </si>
 </sst>
 </file>
@@ -1979,7 +3074,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B538"/>
+  <dimension ref="A1:B904"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -5204,1087 +6299,4015 @@
         <v>404</v>
       </c>
       <c r="B403" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B404" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B405" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B406" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B407" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B408" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B409" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B410" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B411" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B412" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B413" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B414" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B415" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B416" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B417" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B418" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B419" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B420" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B421" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B422" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B423" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B424" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B425" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B426" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B427" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B428" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="429" spans="1:2">
       <c r="A429" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B429" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="430" spans="1:2">
       <c r="A430" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B430" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B431" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="432" spans="1:2">
       <c r="A432" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B432" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B433" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B434" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="435" spans="1:2">
       <c r="A435" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B435" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B436" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="437" spans="1:2">
       <c r="A437" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B437" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B438" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="439" spans="1:2">
       <c r="A439" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B439" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="440" spans="1:2">
       <c r="A440" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B440" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="441" spans="1:2">
       <c r="A441" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B441" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="442" spans="1:2">
       <c r="A442" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B442" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="443" spans="1:2">
       <c r="A443" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B443" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B444" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="445" spans="1:2">
       <c r="A445" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B445" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B446" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="447" spans="1:2">
       <c r="A447" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B447" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B448" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B449" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="450" spans="1:2">
       <c r="A450" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B450" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B451" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="452" spans="1:2">
       <c r="A452" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B452" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B453" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="454" spans="1:2">
       <c r="A454" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B454" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="455" spans="1:2">
       <c r="A455" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B455" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B456" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B457" t="s">
-        <v>405</v>
+        <v>7</v>
       </c>
     </row>
     <row r="458" spans="1:2">
       <c r="A458" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B458" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B459" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="460" spans="1:2">
       <c r="A460" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B460" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B461" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B462" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B463" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B464" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B465" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B466" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="467" spans="1:2">
       <c r="A467" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B467" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="468" spans="1:2">
       <c r="A468" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B468" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="469" spans="1:2">
       <c r="A469" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B469" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B470" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B471" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B472" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B473" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B474" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="475" spans="1:2">
       <c r="A475" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B475" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B476" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B477" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="478" spans="1:2">
       <c r="A478" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B478" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B479" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="480" spans="1:2">
       <c r="A480" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B480" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B481" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B482" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="483" spans="1:2">
       <c r="A483" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B483" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B484" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="485" spans="1:2">
       <c r="A485" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B485" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B486" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B487" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B488" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B489" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="490" spans="1:2">
       <c r="A490" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B490" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="491" spans="1:2">
       <c r="A491" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B491" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="492" spans="1:2">
       <c r="A492" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B492" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="493" spans="1:2">
       <c r="A493" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B493" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="494" spans="1:2">
       <c r="A494" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B494" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B495" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="496" spans="1:2">
       <c r="A496" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B496" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="497" spans="1:2">
       <c r="A497" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B497" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="498" spans="1:2">
       <c r="A498" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B498" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="499" spans="1:2">
       <c r="A499" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B499" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="500" spans="1:2">
       <c r="A500" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B500" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="501" spans="1:2">
       <c r="A501" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B501" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="502" spans="1:2">
       <c r="A502" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B502" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="503" spans="1:2">
       <c r="A503" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B503" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="504" spans="1:2">
       <c r="A504" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B504" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="505" spans="1:2">
       <c r="A505" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B505" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="506" spans="1:2">
       <c r="A506" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B506" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="507" spans="1:2">
       <c r="A507" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B507" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="508" spans="1:2">
       <c r="A508" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B508" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B509" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B510" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="511" spans="1:2">
       <c r="A511" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B511" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B512" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="513" spans="1:2">
       <c r="A513" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B513" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="514" spans="1:2">
       <c r="A514" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B514" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="515" spans="1:2">
       <c r="A515" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B515" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="516" spans="1:2">
       <c r="A516" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B516" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B517" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B518" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B519" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B520" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B521" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="522" spans="1:2">
       <c r="A522" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B522" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="523" spans="1:2">
       <c r="A523" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B523" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B524" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="525" spans="1:2">
       <c r="A525" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B525" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="526" spans="1:2">
       <c r="A526" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B526" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B527" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="528" spans="1:2">
       <c r="A528" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B528" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="529" spans="1:2">
       <c r="A529" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B529" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="530" spans="1:2">
       <c r="A530" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B530" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B531" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="532" spans="1:2">
       <c r="A532" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B532" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="533" spans="1:2">
       <c r="A533" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B533" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B534" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B535" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="536" spans="1:2">
       <c r="A536" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B536" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="537" spans="1:2">
       <c r="A537" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B537" t="s">
-        <v>461</v>
+        <v>7</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
+        <v>539</v>
+      </c>
+      <c r="B538" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" t="s">
+        <v>540</v>
+      </c>
+      <c r="B539" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" t="s">
         <v>541</v>
       </c>
-      <c r="B538" t="s">
-        <v>461</v>
+      <c r="B540" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" t="s">
+        <v>542</v>
+      </c>
+      <c r="B541" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" t="s">
+        <v>543</v>
+      </c>
+      <c r="B542" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" t="s">
+        <v>544</v>
+      </c>
+      <c r="B543" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544" t="s">
+        <v>545</v>
+      </c>
+      <c r="B544" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" t="s">
+        <v>546</v>
+      </c>
+      <c r="B545" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" t="s">
+        <v>547</v>
+      </c>
+      <c r="B546" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547" t="s">
+        <v>548</v>
+      </c>
+      <c r="B547" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="A548" t="s">
+        <v>549</v>
+      </c>
+      <c r="B548" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" t="s">
+        <v>550</v>
+      </c>
+      <c r="B549" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550" t="s">
+        <v>551</v>
+      </c>
+      <c r="B550" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" t="s">
+        <v>552</v>
+      </c>
+      <c r="B551" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552" t="s">
+        <v>553</v>
+      </c>
+      <c r="B552" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="A553" t="s">
+        <v>554</v>
+      </c>
+      <c r="B553" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="A554" t="s">
+        <v>555</v>
+      </c>
+      <c r="B554" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" t="s">
+        <v>556</v>
+      </c>
+      <c r="B555" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" t="s">
+        <v>557</v>
+      </c>
+      <c r="B556" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" t="s">
+        <v>558</v>
+      </c>
+      <c r="B557" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2">
+      <c r="A558" t="s">
+        <v>559</v>
+      </c>
+      <c r="B558" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559" t="s">
+        <v>560</v>
+      </c>
+      <c r="B559" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560" t="s">
+        <v>561</v>
+      </c>
+      <c r="B560" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" t="s">
+        <v>562</v>
+      </c>
+      <c r="B561" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" t="s">
+        <v>563</v>
+      </c>
+      <c r="B562" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" t="s">
+        <v>564</v>
+      </c>
+      <c r="B563" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" t="s">
+        <v>565</v>
+      </c>
+      <c r="B564" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" t="s">
+        <v>566</v>
+      </c>
+      <c r="B565" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" t="s">
+        <v>567</v>
+      </c>
+      <c r="B566" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" t="s">
+        <v>568</v>
+      </c>
+      <c r="B567" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568" t="s">
+        <v>569</v>
+      </c>
+      <c r="B568" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569" t="s">
+        <v>570</v>
+      </c>
+      <c r="B569" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570" t="s">
+        <v>571</v>
+      </c>
+      <c r="B570" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571" t="s">
+        <v>572</v>
+      </c>
+      <c r="B571" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" t="s">
+        <v>573</v>
+      </c>
+      <c r="B572" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573" t="s">
+        <v>574</v>
+      </c>
+      <c r="B573" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" t="s">
+        <v>575</v>
+      </c>
+      <c r="B574" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" t="s">
+        <v>576</v>
+      </c>
+      <c r="B575" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" t="s">
+        <v>577</v>
+      </c>
+      <c r="B576" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" t="s">
+        <v>578</v>
+      </c>
+      <c r="B577" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" t="s">
+        <v>579</v>
+      </c>
+      <c r="B578" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579" t="s">
+        <v>580</v>
+      </c>
+      <c r="B579" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580" t="s">
+        <v>581</v>
+      </c>
+      <c r="B580" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581" t="s">
+        <v>582</v>
+      </c>
+      <c r="B581" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="A582" t="s">
+        <v>583</v>
+      </c>
+      <c r="B582" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583" t="s">
+        <v>584</v>
+      </c>
+      <c r="B583" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584" t="s">
+        <v>585</v>
+      </c>
+      <c r="B584" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2">
+      <c r="A585" t="s">
+        <v>586</v>
+      </c>
+      <c r="B585" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" t="s">
+        <v>587</v>
+      </c>
+      <c r="B586" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587" t="s">
+        <v>588</v>
+      </c>
+      <c r="B587" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="A588" t="s">
+        <v>589</v>
+      </c>
+      <c r="B588" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589" t="s">
+        <v>590</v>
+      </c>
+      <c r="B589" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2">
+      <c r="A590" t="s">
+        <v>591</v>
+      </c>
+      <c r="B590" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2">
+      <c r="A591" t="s">
+        <v>592</v>
+      </c>
+      <c r="B591" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2">
+      <c r="A592" t="s">
+        <v>593</v>
+      </c>
+      <c r="B592" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" t="s">
+        <v>594</v>
+      </c>
+      <c r="B593" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594" t="s">
+        <v>595</v>
+      </c>
+      <c r="B594" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" t="s">
+        <v>596</v>
+      </c>
+      <c r="B595" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" t="s">
+        <v>597</v>
+      </c>
+      <c r="B596" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="A597" t="s">
+        <v>598</v>
+      </c>
+      <c r="B597" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598" t="s">
+        <v>599</v>
+      </c>
+      <c r="B598" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" t="s">
+        <v>600</v>
+      </c>
+      <c r="B599" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2">
+      <c r="A600" t="s">
+        <v>601</v>
+      </c>
+      <c r="B600" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2">
+      <c r="A601" t="s">
+        <v>602</v>
+      </c>
+      <c r="B601" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="A602" t="s">
+        <v>603</v>
+      </c>
+      <c r="B602" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2">
+      <c r="A603" t="s">
+        <v>604</v>
+      </c>
+      <c r="B603" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2">
+      <c r="A604" t="s">
+        <v>605</v>
+      </c>
+      <c r="B604" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605" t="s">
+        <v>606</v>
+      </c>
+      <c r="B605" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606" t="s">
+        <v>607</v>
+      </c>
+      <c r="B606" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607" t="s">
+        <v>608</v>
+      </c>
+      <c r="B607" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2">
+      <c r="A608" t="s">
+        <v>609</v>
+      </c>
+      <c r="B608" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2">
+      <c r="A609" t="s">
+        <v>610</v>
+      </c>
+      <c r="B609" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2">
+      <c r="A610" t="s">
+        <v>611</v>
+      </c>
+      <c r="B610" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611" t="s">
+        <v>612</v>
+      </c>
+      <c r="B611" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2">
+      <c r="A612" t="s">
+        <v>613</v>
+      </c>
+      <c r="B612" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613" t="s">
+        <v>614</v>
+      </c>
+      <c r="B613" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2">
+      <c r="A614" t="s">
+        <v>615</v>
+      </c>
+      <c r="B614" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2">
+      <c r="A615" t="s">
+        <v>616</v>
+      </c>
+      <c r="B615" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616" t="s">
+        <v>617</v>
+      </c>
+      <c r="B616" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" t="s">
+        <v>618</v>
+      </c>
+      <c r="B617" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2">
+      <c r="A618" t="s">
+        <v>619</v>
+      </c>
+      <c r="B618" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619" t="s">
+        <v>620</v>
+      </c>
+      <c r="B619" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2">
+      <c r="A620" t="s">
+        <v>621</v>
+      </c>
+      <c r="B620" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2">
+      <c r="A621" t="s">
+        <v>622</v>
+      </c>
+      <c r="B621" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2">
+      <c r="A622" t="s">
+        <v>623</v>
+      </c>
+      <c r="B622" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2">
+      <c r="A623" t="s">
+        <v>624</v>
+      </c>
+      <c r="B623" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2">
+      <c r="A624" t="s">
+        <v>625</v>
+      </c>
+      <c r="B624" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2">
+      <c r="A625" t="s">
+        <v>626</v>
+      </c>
+      <c r="B625" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2">
+      <c r="A626" t="s">
+        <v>627</v>
+      </c>
+      <c r="B626" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2">
+      <c r="A627" t="s">
+        <v>628</v>
+      </c>
+      <c r="B627" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2">
+      <c r="A628" t="s">
+        <v>629</v>
+      </c>
+      <c r="B628" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2">
+      <c r="A629" t="s">
+        <v>630</v>
+      </c>
+      <c r="B629" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2">
+      <c r="A630" t="s">
+        <v>631</v>
+      </c>
+      <c r="B630" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2">
+      <c r="A631" t="s">
+        <v>632</v>
+      </c>
+      <c r="B631" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2">
+      <c r="A632" t="s">
+        <v>633</v>
+      </c>
+      <c r="B632" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2">
+      <c r="A633" t="s">
+        <v>634</v>
+      </c>
+      <c r="B633" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2">
+      <c r="A634" t="s">
+        <v>636</v>
+      </c>
+      <c r="B634" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2">
+      <c r="A635" t="s">
+        <v>637</v>
+      </c>
+      <c r="B635" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2">
+      <c r="A636" t="s">
+        <v>638</v>
+      </c>
+      <c r="B636" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2">
+      <c r="A637" t="s">
+        <v>639</v>
+      </c>
+      <c r="B637" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="A638" t="s">
+        <v>640</v>
+      </c>
+      <c r="B638" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2">
+      <c r="A639" t="s">
+        <v>641</v>
+      </c>
+      <c r="B639" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2">
+      <c r="A640" t="s">
+        <v>642</v>
+      </c>
+      <c r="B640" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="A641" t="s">
+        <v>643</v>
+      </c>
+      <c r="B641" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2">
+      <c r="A642" t="s">
+        <v>644</v>
+      </c>
+      <c r="B642" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2">
+      <c r="A643" t="s">
+        <v>645</v>
+      </c>
+      <c r="B643" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2">
+      <c r="A644" t="s">
+        <v>646</v>
+      </c>
+      <c r="B644" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2">
+      <c r="A645" t="s">
+        <v>647</v>
+      </c>
+      <c r="B645" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2">
+      <c r="A646" t="s">
+        <v>648</v>
+      </c>
+      <c r="B646" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2">
+      <c r="A647" t="s">
+        <v>649</v>
+      </c>
+      <c r="B647" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2">
+      <c r="A648" t="s">
+        <v>650</v>
+      </c>
+      <c r="B648" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2">
+      <c r="A649" t="s">
+        <v>651</v>
+      </c>
+      <c r="B649" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2">
+      <c r="A650" t="s">
+        <v>652</v>
+      </c>
+      <c r="B650" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2">
+      <c r="A651" t="s">
+        <v>653</v>
+      </c>
+      <c r="B651" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2">
+      <c r="A652" t="s">
+        <v>654</v>
+      </c>
+      <c r="B652" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2">
+      <c r="A653" t="s">
+        <v>655</v>
+      </c>
+      <c r="B653" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2">
+      <c r="A654" t="s">
+        <v>656</v>
+      </c>
+      <c r="B654" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2">
+      <c r="A655" t="s">
+        <v>657</v>
+      </c>
+      <c r="B655" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2">
+      <c r="A656" t="s">
+        <v>658</v>
+      </c>
+      <c r="B656" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="A657" t="s">
+        <v>659</v>
+      </c>
+      <c r="B657" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="A658" t="s">
+        <v>660</v>
+      </c>
+      <c r="B658" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="A659" t="s">
+        <v>661</v>
+      </c>
+      <c r="B659" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="A660" t="s">
+        <v>662</v>
+      </c>
+      <c r="B660" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
+      <c r="A661" t="s">
+        <v>663</v>
+      </c>
+      <c r="B661" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662" t="s">
+        <v>664</v>
+      </c>
+      <c r="B662" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663" t="s">
+        <v>665</v>
+      </c>
+      <c r="B663" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="A664" t="s">
+        <v>666</v>
+      </c>
+      <c r="B664" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2">
+      <c r="A665" t="s">
+        <v>667</v>
+      </c>
+      <c r="B665" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2">
+      <c r="A666" t="s">
+        <v>668</v>
+      </c>
+      <c r="B666" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2">
+      <c r="A667" t="s">
+        <v>669</v>
+      </c>
+      <c r="B667" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2">
+      <c r="A668" t="s">
+        <v>670</v>
+      </c>
+      <c r="B668" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2">
+      <c r="A669" t="s">
+        <v>671</v>
+      </c>
+      <c r="B669" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2">
+      <c r="A670" t="s">
+        <v>672</v>
+      </c>
+      <c r="B670" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2">
+      <c r="A671" t="s">
+        <v>673</v>
+      </c>
+      <c r="B671" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2">
+      <c r="A672" t="s">
+        <v>674</v>
+      </c>
+      <c r="B672" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2">
+      <c r="A673" t="s">
+        <v>675</v>
+      </c>
+      <c r="B673" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2">
+      <c r="A674" t="s">
+        <v>676</v>
+      </c>
+      <c r="B674" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2">
+      <c r="A675" t="s">
+        <v>677</v>
+      </c>
+      <c r="B675" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2">
+      <c r="A676" t="s">
+        <v>678</v>
+      </c>
+      <c r="B676" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2">
+      <c r="A677" t="s">
+        <v>679</v>
+      </c>
+      <c r="B677" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2">
+      <c r="A678" t="s">
+        <v>680</v>
+      </c>
+      <c r="B678" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2">
+      <c r="A679" t="s">
+        <v>681</v>
+      </c>
+      <c r="B679" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2">
+      <c r="A680" t="s">
+        <v>682</v>
+      </c>
+      <c r="B680" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2">
+      <c r="A681" t="s">
+        <v>683</v>
+      </c>
+      <c r="B681" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2">
+      <c r="A682" t="s">
+        <v>684</v>
+      </c>
+      <c r="B682" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2">
+      <c r="A683" t="s">
+        <v>685</v>
+      </c>
+      <c r="B683" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2">
+      <c r="A684" t="s">
+        <v>686</v>
+      </c>
+      <c r="B684" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2">
+      <c r="A685" t="s">
+        <v>687</v>
+      </c>
+      <c r="B685" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2">
+      <c r="A686" t="s">
+        <v>688</v>
+      </c>
+      <c r="B686" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2">
+      <c r="A687" t="s">
+        <v>689</v>
+      </c>
+      <c r="B687" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2">
+      <c r="A688" t="s">
+        <v>690</v>
+      </c>
+      <c r="B688" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2">
+      <c r="A689" t="s">
+        <v>691</v>
+      </c>
+      <c r="B689" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2">
+      <c r="A690" t="s">
+        <v>692</v>
+      </c>
+      <c r="B690" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2">
+      <c r="A691" t="s">
+        <v>693</v>
+      </c>
+      <c r="B691" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2">
+      <c r="A692" t="s">
+        <v>694</v>
+      </c>
+      <c r="B692" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2">
+      <c r="A693" t="s">
+        <v>695</v>
+      </c>
+      <c r="B693" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2">
+      <c r="A694" t="s">
+        <v>696</v>
+      </c>
+      <c r="B694" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2">
+      <c r="A695" t="s">
+        <v>697</v>
+      </c>
+      <c r="B695" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2">
+      <c r="A696" t="s">
+        <v>698</v>
+      </c>
+      <c r="B696" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2">
+      <c r="A697" t="s">
+        <v>699</v>
+      </c>
+      <c r="B697" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2">
+      <c r="A698" t="s">
+        <v>700</v>
+      </c>
+      <c r="B698" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2">
+      <c r="A699" t="s">
+        <v>701</v>
+      </c>
+      <c r="B699" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2">
+      <c r="A700" t="s">
+        <v>702</v>
+      </c>
+      <c r="B700" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2">
+      <c r="A701" t="s">
+        <v>703</v>
+      </c>
+      <c r="B701" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2">
+      <c r="A702" t="s">
+        <v>704</v>
+      </c>
+      <c r="B702" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2">
+      <c r="A703" t="s">
+        <v>705</v>
+      </c>
+      <c r="B703" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2">
+      <c r="A704" t="s">
+        <v>706</v>
+      </c>
+      <c r="B704" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2">
+      <c r="A705" t="s">
+        <v>707</v>
+      </c>
+      <c r="B705" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2">
+      <c r="A706" t="s">
+        <v>708</v>
+      </c>
+      <c r="B706" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2">
+      <c r="A707" t="s">
+        <v>709</v>
+      </c>
+      <c r="B707" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2">
+      <c r="A708" t="s">
+        <v>710</v>
+      </c>
+      <c r="B708" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2">
+      <c r="A709" t="s">
+        <v>711</v>
+      </c>
+      <c r="B709" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2">
+      <c r="A710" t="s">
+        <v>712</v>
+      </c>
+      <c r="B710" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2">
+      <c r="A711" t="s">
+        <v>713</v>
+      </c>
+      <c r="B711" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2">
+      <c r="A712" t="s">
+        <v>714</v>
+      </c>
+      <c r="B712" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2">
+      <c r="A713" t="s">
+        <v>715</v>
+      </c>
+      <c r="B713" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2">
+      <c r="A714" t="s">
+        <v>716</v>
+      </c>
+      <c r="B714" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2">
+      <c r="A715" t="s">
+        <v>717</v>
+      </c>
+      <c r="B715" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2">
+      <c r="A716" t="s">
+        <v>718</v>
+      </c>
+      <c r="B716" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2">
+      <c r="A717" t="s">
+        <v>719</v>
+      </c>
+      <c r="B717" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2">
+      <c r="A718" t="s">
+        <v>720</v>
+      </c>
+      <c r="B718" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2">
+      <c r="A719" t="s">
+        <v>721</v>
+      </c>
+      <c r="B719" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2">
+      <c r="A720" t="s">
+        <v>722</v>
+      </c>
+      <c r="B720" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2">
+      <c r="A721" t="s">
+        <v>723</v>
+      </c>
+      <c r="B721" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2">
+      <c r="A722" t="s">
+        <v>724</v>
+      </c>
+      <c r="B722" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2">
+      <c r="A723" t="s">
+        <v>725</v>
+      </c>
+      <c r="B723" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2">
+      <c r="A724" t="s">
+        <v>726</v>
+      </c>
+      <c r="B724" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2">
+      <c r="A725" t="s">
+        <v>727</v>
+      </c>
+      <c r="B725" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2">
+      <c r="A726" t="s">
+        <v>729</v>
+      </c>
+      <c r="B726" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2">
+      <c r="A727" t="s">
+        <v>730</v>
+      </c>
+      <c r="B727" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2">
+      <c r="A728" t="s">
+        <v>731</v>
+      </c>
+      <c r="B728" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2">
+      <c r="A729" t="s">
+        <v>732</v>
+      </c>
+      <c r="B729" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2">
+      <c r="A730" t="s">
+        <v>733</v>
+      </c>
+      <c r="B730" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2">
+      <c r="A731" t="s">
+        <v>734</v>
+      </c>
+      <c r="B731" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2">
+      <c r="A732" t="s">
+        <v>735</v>
+      </c>
+      <c r="B732" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2">
+      <c r="A733" t="s">
+        <v>736</v>
+      </c>
+      <c r="B733" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2">
+      <c r="A734" t="s">
+        <v>737</v>
+      </c>
+      <c r="B734" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2">
+      <c r="A735" t="s">
+        <v>738</v>
+      </c>
+      <c r="B735" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2">
+      <c r="A736" t="s">
+        <v>739</v>
+      </c>
+      <c r="B736" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2">
+      <c r="A737" t="s">
+        <v>740</v>
+      </c>
+      <c r="B737" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2">
+      <c r="A738" t="s">
+        <v>741</v>
+      </c>
+      <c r="B738" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2">
+      <c r="A739" t="s">
+        <v>742</v>
+      </c>
+      <c r="B739" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2">
+      <c r="A740" t="s">
+        <v>743</v>
+      </c>
+      <c r="B740" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2">
+      <c r="A741" t="s">
+        <v>744</v>
+      </c>
+      <c r="B741" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2">
+      <c r="A742" t="s">
+        <v>745</v>
+      </c>
+      <c r="B742" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2">
+      <c r="A743" t="s">
+        <v>746</v>
+      </c>
+      <c r="B743" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2">
+      <c r="A744" t="s">
+        <v>747</v>
+      </c>
+      <c r="B744" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2">
+      <c r="A745" t="s">
+        <v>748</v>
+      </c>
+      <c r="B745" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2">
+      <c r="A746" t="s">
+        <v>749</v>
+      </c>
+      <c r="B746" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2">
+      <c r="A747" t="s">
+        <v>750</v>
+      </c>
+      <c r="B747" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2">
+      <c r="A748" t="s">
+        <v>751</v>
+      </c>
+      <c r="B748" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2">
+      <c r="A749" t="s">
+        <v>752</v>
+      </c>
+      <c r="B749" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2">
+      <c r="A750" t="s">
+        <v>753</v>
+      </c>
+      <c r="B750" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2">
+      <c r="A751" t="s">
+        <v>754</v>
+      </c>
+      <c r="B751" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2">
+      <c r="A752" t="s">
+        <v>755</v>
+      </c>
+      <c r="B752" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2">
+      <c r="A753" t="s">
+        <v>756</v>
+      </c>
+      <c r="B753" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2">
+      <c r="A754" t="s">
+        <v>757</v>
+      </c>
+      <c r="B754" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2">
+      <c r="A755" t="s">
+        <v>758</v>
+      </c>
+      <c r="B755" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2">
+      <c r="A756" t="s">
+        <v>759</v>
+      </c>
+      <c r="B756" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2">
+      <c r="A757" t="s">
+        <v>760</v>
+      </c>
+      <c r="B757" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2">
+      <c r="A758" t="s">
+        <v>761</v>
+      </c>
+      <c r="B758" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2">
+      <c r="A759" t="s">
+        <v>762</v>
+      </c>
+      <c r="B759" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2">
+      <c r="A760" t="s">
+        <v>763</v>
+      </c>
+      <c r="B760" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2">
+      <c r="A761" t="s">
+        <v>764</v>
+      </c>
+      <c r="B761" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2">
+      <c r="A762" t="s">
+        <v>765</v>
+      </c>
+      <c r="B762" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2">
+      <c r="A763" t="s">
+        <v>766</v>
+      </c>
+      <c r="B763" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2">
+      <c r="A764" t="s">
+        <v>767</v>
+      </c>
+      <c r="B764" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2">
+      <c r="A765" t="s">
+        <v>768</v>
+      </c>
+      <c r="B765" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2">
+      <c r="A766" t="s">
+        <v>769</v>
+      </c>
+      <c r="B766" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2">
+      <c r="A767" t="s">
+        <v>770</v>
+      </c>
+      <c r="B767" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2">
+      <c r="A768" t="s">
+        <v>771</v>
+      </c>
+      <c r="B768" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2">
+      <c r="A769" t="s">
+        <v>772</v>
+      </c>
+      <c r="B769" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2">
+      <c r="A770" t="s">
+        <v>773</v>
+      </c>
+      <c r="B770" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2">
+      <c r="A771" t="s">
+        <v>774</v>
+      </c>
+      <c r="B771" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2">
+      <c r="A772" t="s">
+        <v>775</v>
+      </c>
+      <c r="B772" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2">
+      <c r="A773" t="s">
+        <v>776</v>
+      </c>
+      <c r="B773" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2">
+      <c r="A774" t="s">
+        <v>777</v>
+      </c>
+      <c r="B774" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2">
+      <c r="A775" t="s">
+        <v>778</v>
+      </c>
+      <c r="B775" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2">
+      <c r="A776" t="s">
+        <v>779</v>
+      </c>
+      <c r="B776" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2">
+      <c r="A777" t="s">
+        <v>780</v>
+      </c>
+      <c r="B777" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2">
+      <c r="A778" t="s">
+        <v>781</v>
+      </c>
+      <c r="B778" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2">
+      <c r="A779" t="s">
+        <v>782</v>
+      </c>
+      <c r="B779" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2">
+      <c r="A780" t="s">
+        <v>783</v>
+      </c>
+      <c r="B780" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2">
+      <c r="A781" t="s">
+        <v>784</v>
+      </c>
+      <c r="B781" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2">
+      <c r="A782" t="s">
+        <v>785</v>
+      </c>
+      <c r="B782" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2">
+      <c r="A783" t="s">
+        <v>786</v>
+      </c>
+      <c r="B783" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2">
+      <c r="A784" t="s">
+        <v>787</v>
+      </c>
+      <c r="B784" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2">
+      <c r="A785" t="s">
+        <v>788</v>
+      </c>
+      <c r="B785" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2">
+      <c r="A786" t="s">
+        <v>789</v>
+      </c>
+      <c r="B786" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2">
+      <c r="A787" t="s">
+        <v>790</v>
+      </c>
+      <c r="B787" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2">
+      <c r="A788" t="s">
+        <v>791</v>
+      </c>
+      <c r="B788" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2">
+      <c r="A789" t="s">
+        <v>792</v>
+      </c>
+      <c r="B789" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2">
+      <c r="A790" t="s">
+        <v>793</v>
+      </c>
+      <c r="B790" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2">
+      <c r="A791" t="s">
+        <v>794</v>
+      </c>
+      <c r="B791" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2">
+      <c r="A792" t="s">
+        <v>795</v>
+      </c>
+      <c r="B792" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2">
+      <c r="A793" t="s">
+        <v>796</v>
+      </c>
+      <c r="B793" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2">
+      <c r="A794" t="s">
+        <v>797</v>
+      </c>
+      <c r="B794" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2">
+      <c r="A795" t="s">
+        <v>798</v>
+      </c>
+      <c r="B795" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2">
+      <c r="A796" t="s">
+        <v>799</v>
+      </c>
+      <c r="B796" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2">
+      <c r="A797" t="s">
+        <v>800</v>
+      </c>
+      <c r="B797" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2">
+      <c r="A798" t="s">
+        <v>801</v>
+      </c>
+      <c r="B798" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2">
+      <c r="A799" t="s">
+        <v>802</v>
+      </c>
+      <c r="B799" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2">
+      <c r="A800" t="s">
+        <v>803</v>
+      </c>
+      <c r="B800" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2">
+      <c r="A801" t="s">
+        <v>804</v>
+      </c>
+      <c r="B801" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2">
+      <c r="A802" t="s">
+        <v>805</v>
+      </c>
+      <c r="B802" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2">
+      <c r="A803" t="s">
+        <v>806</v>
+      </c>
+      <c r="B803" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2">
+      <c r="A804" t="s">
+        <v>807</v>
+      </c>
+      <c r="B804" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2">
+      <c r="A805" t="s">
+        <v>808</v>
+      </c>
+      <c r="B805" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2">
+      <c r="A806" t="s">
+        <v>809</v>
+      </c>
+      <c r="B806" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2">
+      <c r="A807" t="s">
+        <v>810</v>
+      </c>
+      <c r="B807" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2">
+      <c r="A808" t="s">
+        <v>811</v>
+      </c>
+      <c r="B808" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2">
+      <c r="A809" t="s">
+        <v>812</v>
+      </c>
+      <c r="B809" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2">
+      <c r="A810" t="s">
+        <v>813</v>
+      </c>
+      <c r="B810" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2">
+      <c r="A811" t="s">
+        <v>814</v>
+      </c>
+      <c r="B811" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2">
+      <c r="A812" t="s">
+        <v>815</v>
+      </c>
+      <c r="B812" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2">
+      <c r="A813" t="s">
+        <v>816</v>
+      </c>
+      <c r="B813" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2">
+      <c r="A814" t="s">
+        <v>817</v>
+      </c>
+      <c r="B814" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2">
+      <c r="A815" t="s">
+        <v>818</v>
+      </c>
+      <c r="B815" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2">
+      <c r="A816" t="s">
+        <v>819</v>
+      </c>
+      <c r="B816" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2">
+      <c r="A817" t="s">
+        <v>820</v>
+      </c>
+      <c r="B817" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2">
+      <c r="A818" t="s">
+        <v>821</v>
+      </c>
+      <c r="B818" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2">
+      <c r="A819" t="s">
+        <v>822</v>
+      </c>
+      <c r="B819" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2">
+      <c r="A820" t="s">
+        <v>823</v>
+      </c>
+      <c r="B820" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2">
+      <c r="A821" t="s">
+        <v>824</v>
+      </c>
+      <c r="B821" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2">
+      <c r="A822" t="s">
+        <v>825</v>
+      </c>
+      <c r="B822" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2">
+      <c r="A823" t="s">
+        <v>826</v>
+      </c>
+      <c r="B823" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2">
+      <c r="A824" t="s">
+        <v>827</v>
+      </c>
+      <c r="B824" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2">
+      <c r="A825" t="s">
+        <v>828</v>
+      </c>
+      <c r="B825" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2">
+      <c r="A826" t="s">
+        <v>829</v>
+      </c>
+      <c r="B826" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2">
+      <c r="A827" t="s">
+        <v>830</v>
+      </c>
+      <c r="B827" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2">
+      <c r="A828" t="s">
+        <v>831</v>
+      </c>
+      <c r="B828" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2">
+      <c r="A829" t="s">
+        <v>832</v>
+      </c>
+      <c r="B829" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2">
+      <c r="A830" t="s">
+        <v>833</v>
+      </c>
+      <c r="B830" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2">
+      <c r="A831" t="s">
+        <v>834</v>
+      </c>
+      <c r="B831" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2">
+      <c r="A832" t="s">
+        <v>835</v>
+      </c>
+      <c r="B832" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2">
+      <c r="A833" t="s">
+        <v>836</v>
+      </c>
+      <c r="B833" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2">
+      <c r="A834" t="s">
+        <v>837</v>
+      </c>
+      <c r="B834" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2">
+      <c r="A835" t="s">
+        <v>838</v>
+      </c>
+      <c r="B835" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2">
+      <c r="A836" t="s">
+        <v>839</v>
+      </c>
+      <c r="B836" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2">
+      <c r="A837" t="s">
+        <v>840</v>
+      </c>
+      <c r="B837" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2">
+      <c r="A838" t="s">
+        <v>841</v>
+      </c>
+      <c r="B838" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2">
+      <c r="A839" t="s">
+        <v>842</v>
+      </c>
+      <c r="B839" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2">
+      <c r="A840" t="s">
+        <v>843</v>
+      </c>
+      <c r="B840" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2">
+      <c r="A841" t="s">
+        <v>844</v>
+      </c>
+      <c r="B841" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2">
+      <c r="A842" t="s">
+        <v>845</v>
+      </c>
+      <c r="B842" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2">
+      <c r="A843" t="s">
+        <v>846</v>
+      </c>
+      <c r="B843" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2">
+      <c r="A844" t="s">
+        <v>847</v>
+      </c>
+      <c r="B844" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2">
+      <c r="A845" t="s">
+        <v>848</v>
+      </c>
+      <c r="B845" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2">
+      <c r="A846" t="s">
+        <v>849</v>
+      </c>
+      <c r="B846" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2">
+      <c r="A847" t="s">
+        <v>850</v>
+      </c>
+      <c r="B847" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2">
+      <c r="A848" t="s">
+        <v>851</v>
+      </c>
+      <c r="B848" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2">
+      <c r="A849" t="s">
+        <v>852</v>
+      </c>
+      <c r="B849" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2">
+      <c r="A850" t="s">
+        <v>853</v>
+      </c>
+      <c r="B850" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2">
+      <c r="A851" t="s">
+        <v>854</v>
+      </c>
+      <c r="B851" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2">
+      <c r="A852" t="s">
+        <v>855</v>
+      </c>
+      <c r="B852" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2">
+      <c r="A853" t="s">
+        <v>856</v>
+      </c>
+      <c r="B853" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2">
+      <c r="A854" t="s">
+        <v>857</v>
+      </c>
+      <c r="B854" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2">
+      <c r="A855" t="s">
+        <v>858</v>
+      </c>
+      <c r="B855" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2">
+      <c r="A856" t="s">
+        <v>859</v>
+      </c>
+      <c r="B856" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2">
+      <c r="A857" t="s">
+        <v>860</v>
+      </c>
+      <c r="B857" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2">
+      <c r="A858" t="s">
+        <v>861</v>
+      </c>
+      <c r="B858" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2">
+      <c r="A859" t="s">
+        <v>862</v>
+      </c>
+      <c r="B859" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2">
+      <c r="A860" t="s">
+        <v>863</v>
+      </c>
+      <c r="B860" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2">
+      <c r="A861" t="s">
+        <v>864</v>
+      </c>
+      <c r="B861" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2">
+      <c r="A862" t="s">
+        <v>865</v>
+      </c>
+      <c r="B862" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2">
+      <c r="A863" t="s">
+        <v>866</v>
+      </c>
+      <c r="B863" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2">
+      <c r="A864" t="s">
+        <v>867</v>
+      </c>
+      <c r="B864" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2">
+      <c r="A865" t="s">
+        <v>868</v>
+      </c>
+      <c r="B865" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2">
+      <c r="A866" t="s">
+        <v>869</v>
+      </c>
+      <c r="B866" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2">
+      <c r="A867" t="s">
+        <v>870</v>
+      </c>
+      <c r="B867" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2">
+      <c r="A868" t="s">
+        <v>871</v>
+      </c>
+      <c r="B868" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2">
+      <c r="A869" t="s">
+        <v>872</v>
+      </c>
+      <c r="B869" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2">
+      <c r="A870" t="s">
+        <v>873</v>
+      </c>
+      <c r="B870" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2">
+      <c r="A871" t="s">
+        <v>874</v>
+      </c>
+      <c r="B871" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2">
+      <c r="A872" t="s">
+        <v>875</v>
+      </c>
+      <c r="B872" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2">
+      <c r="A873" t="s">
+        <v>876</v>
+      </c>
+      <c r="B873" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2">
+      <c r="A874" t="s">
+        <v>877</v>
+      </c>
+      <c r="B874" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2">
+      <c r="A875" t="s">
+        <v>878</v>
+      </c>
+      <c r="B875" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2">
+      <c r="A876" t="s">
+        <v>879</v>
+      </c>
+      <c r="B876" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2">
+      <c r="A877" t="s">
+        <v>880</v>
+      </c>
+      <c r="B877" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2">
+      <c r="A878" t="s">
+        <v>881</v>
+      </c>
+      <c r="B878" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2">
+      <c r="A879" t="s">
+        <v>882</v>
+      </c>
+      <c r="B879" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2">
+      <c r="A880" t="s">
+        <v>883</v>
+      </c>
+      <c r="B880" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2">
+      <c r="A881" t="s">
+        <v>884</v>
+      </c>
+      <c r="B881" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2">
+      <c r="A882" t="s">
+        <v>885</v>
+      </c>
+      <c r="B882" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2">
+      <c r="A883" t="s">
+        <v>886</v>
+      </c>
+      <c r="B883" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2">
+      <c r="A884" t="s">
+        <v>887</v>
+      </c>
+      <c r="B884" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2">
+      <c r="A885" t="s">
+        <v>888</v>
+      </c>
+      <c r="B885" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2">
+      <c r="A886" t="s">
+        <v>889</v>
+      </c>
+      <c r="B886" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2">
+      <c r="A887" t="s">
+        <v>890</v>
+      </c>
+      <c r="B887" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2">
+      <c r="A888" t="s">
+        <v>891</v>
+      </c>
+      <c r="B888" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2">
+      <c r="A889" t="s">
+        <v>768</v>
+      </c>
+      <c r="B889" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2">
+      <c r="A890" t="s">
+        <v>892</v>
+      </c>
+      <c r="B890" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2">
+      <c r="A891" t="s">
+        <v>893</v>
+      </c>
+      <c r="B891" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2">
+      <c r="A892" t="s">
+        <v>894</v>
+      </c>
+      <c r="B892" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2">
+      <c r="A893" t="s">
+        <v>895</v>
+      </c>
+      <c r="B893" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2">
+      <c r="A894" t="s">
+        <v>896</v>
+      </c>
+      <c r="B894" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2">
+      <c r="A895" t="s">
+        <v>897</v>
+      </c>
+      <c r="B895" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2">
+      <c r="A896" t="s">
+        <v>898</v>
+      </c>
+      <c r="B896" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2">
+      <c r="A897" t="s">
+        <v>899</v>
+      </c>
+      <c r="B897" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2">
+      <c r="A898" t="s">
+        <v>900</v>
+      </c>
+      <c r="B898" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2">
+      <c r="A899" t="s">
+        <v>901</v>
+      </c>
+      <c r="B899" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2">
+      <c r="A900" t="s">
+        <v>902</v>
+      </c>
+      <c r="B900" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2">
+      <c r="A901" t="s">
+        <v>903</v>
+      </c>
+      <c r="B901" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2">
+      <c r="A902" t="s">
+        <v>904</v>
+      </c>
+      <c r="B902" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2">
+      <c r="A903" t="s">
+        <v>905</v>
+      </c>
+      <c r="B903" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2">
+      <c r="A904" t="s">
+        <v>906</v>
+      </c>
+      <c r="B904" t="s">
+        <v>728</v>
       </c>
     </row>
   </sheetData>
